--- a/src/test/resources/testdata/Client/E2EFlow.xlsx
+++ b/src/test/resources/testdata/Client/E2EFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD9B86-E165-4F46-8C9D-7C31C3402113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FACAC0-0AB3-49DA-87BB-4AE162ABA742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176C0CDE-58DE-4F80-B9A9-A69CF69E117C}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="372">
   <si>
     <t>Alabama</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Annuity_TaxQualification</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1601,7 @@
   <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1689,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>

--- a/src/test/resources/testdata/Client/E2EFlow.xlsx
+++ b/src/test/resources/testdata/Client/E2EFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A88CFE-FCA4-49F8-AC6C-62B6F47E127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77B832-DCE7-45C0-BA30-733ABBDCEB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{176C0CDE-58DE-4F80-B9A9-A69CF69E117C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176C0CDE-58DE-4F80-B9A9-A69CF69E117C}"/>
   </bookViews>
   <sheets>
     <sheet name="VA" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="423">
   <si>
     <t>Alabama</t>
   </si>
@@ -1299,13 +1299,46 @@
   </si>
   <si>
     <t>HDFC_E2E</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>INT Fund 1</t>
+  </si>
+  <si>
+    <t>INT Fund 4</t>
+  </si>
+  <si>
+    <t>LCG Fund 1</t>
+  </si>
+  <si>
+    <t>LCG Fund 3</t>
+  </si>
+  <si>
+    <t>LCG Fund 5</t>
+  </si>
+  <si>
+    <t>MM Fund 1</t>
+  </si>
+  <si>
+    <t>MM Fund 3</t>
+  </si>
+  <si>
+    <t>MM Fund 5</t>
+  </si>
+  <si>
+    <t>SCV Fund 2</t>
+  </si>
+  <si>
+    <t>AdditionalAgent1_LastName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1379,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1384,7 +1430,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1406,6 +1452,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1768,19 +1820,20 @@
   <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1791,14 +1844,16 @@
         <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
@@ -1808,15 +1863,15 @@
       <c r="C2" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -1826,15 +1881,15 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1844,15 +1899,15 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1862,15 +1917,15 @@
       <c r="C5" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1880,15 +1935,15 @@
       <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1898,15 +1953,15 @@
       <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1916,15 +1971,15 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1934,15 +1989,15 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1952,15 +2007,15 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1970,15 +2025,15 @@
       <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1988,15 +2043,15 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3">
         <v>545017855</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2006,15 +2061,15 @@
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -2024,15 +2079,15 @@
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2042,15 +2097,15 @@
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -2060,15 +2115,15 @@
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -2078,15 +2133,15 @@
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -2096,15 +2151,15 @@
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -2114,15 +2169,15 @@
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3">
         <v>98422</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2132,15 +2187,15 @@
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -2150,15 +2205,15 @@
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -2168,15 +2223,15 @@
       <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -2186,15 +2241,15 @@
       <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2204,15 +2259,15 @@
       <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -2222,15 +2277,15 @@
       <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3">
         <v>545637676</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -2240,15 +2295,15 @@
       <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9114568855</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -2258,15 +2313,15 @@
       <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2276,15 +2331,15 @@
       <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
@@ -2294,15 +2349,15 @@
       <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -2312,15 +2367,15 @@
       <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2330,15 +2385,15 @@
       <c r="C31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -2348,15 +2403,15 @@
       <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -2366,15 +2421,15 @@
       <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3">
         <v>456287531</v>
       </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -2384,15 +2439,15 @@
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -2402,15 +2457,15 @@
       <c r="C35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -2420,15 +2475,15 @@
       <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
@@ -2438,15 +2493,15 @@
       <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3">
         <v>100001</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
@@ -2456,15 +2511,15 @@
       <c r="C38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -2474,15 +2529,15 @@
       <c r="C39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
@@ -2492,15 +2547,15 @@
       <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>68</v>
       </c>
@@ -2510,15 +2565,15 @@
       <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="3">
         <v>12083</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -2528,15 +2583,15 @@
       <c r="C42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -2546,15 +2601,15 @@
       <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -2564,15 +2619,15 @@
       <c r="C44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>68</v>
       </c>
@@ -2582,15 +2637,15 @@
       <c r="C45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>68</v>
       </c>
@@ -2600,15 +2655,15 @@
       <c r="C46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>68</v>
       </c>
@@ -2618,15 +2673,15 @@
       <c r="C47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="3">
         <v>49307</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
@@ -2636,15 +2691,15 @@
       <c r="C48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4567716535</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
@@ -2654,15 +2709,15 @@
       <c r="C49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>68</v>
       </c>
@@ -2672,15 +2727,15 @@
       <c r="C50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -2690,15 +2745,15 @@
       <c r="C51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>68</v>
       </c>
@@ -2708,15 +2763,15 @@
       <c r="C52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
@@ -2726,15 +2781,15 @@
       <c r="C53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>68</v>
       </c>
@@ -2744,15 +2799,15 @@
       <c r="C54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="3">
         <v>698775429</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>68</v>
       </c>
@@ -2762,15 +2817,15 @@
       <c r="C55" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
@@ -2780,15 +2835,15 @@
       <c r="C56" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>68</v>
       </c>
@@ -2798,15 +2853,15 @@
       <c r="C57" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -2816,15 +2871,15 @@
       <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -2834,15 +2889,15 @@
       <c r="C59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>68</v>
       </c>
@@ -2852,15 +2907,15 @@
       <c r="C60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>68</v>
       </c>
@@ -2870,15 +2925,15 @@
       <c r="C61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
@@ -2888,15 +2943,15 @@
       <c r="C62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="3">
         <v>60120</v>
       </c>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
@@ -2906,15 +2961,15 @@
       <c r="C63" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -2924,15 +2979,15 @@
       <c r="C64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -2942,15 +2997,15 @@
       <c r="C65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -2960,15 +3015,15 @@
       <c r="C66" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -2978,15 +3033,15 @@
       <c r="C67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
@@ -2996,15 +3051,15 @@
       <c r="C68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="3">
         <v>40222</v>
       </c>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -3014,15 +3069,15 @@
       <c r="C69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="3">
         <v>6594557441</v>
       </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -3032,15 +3087,15 @@
       <c r="C70" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>135</v>
       </c>
@@ -3050,15 +3105,15 @@
       <c r="C71" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="3">
         <v>2</v>
       </c>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>135</v>
       </c>
@@ -3068,15 +3123,15 @@
       <c r="C72" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1</v>
       </c>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>135</v>
       </c>
@@ -3086,15 +3141,15 @@
       <c r="C73" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>135</v>
       </c>
@@ -3104,15 +3159,15 @@
       <c r="C74" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>135</v>
       </c>
@@ -3122,15 +3177,15 @@
       <c r="C75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="3">
         <v>60</v>
       </c>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>135</v>
       </c>
@@ -3140,15 +3195,15 @@
       <c r="C76" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>135</v>
       </c>
@@ -3158,15 +3213,15 @@
       <c r="C77" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>135</v>
       </c>
@@ -3176,15 +3231,15 @@
       <c r="C78" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>135</v>
       </c>
@@ -3194,15 +3249,15 @@
       <c r="C79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="6" t="s">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>135</v>
       </c>
@@ -3212,15 +3267,15 @@
       <c r="C80" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="3">
         <v>659481575</v>
       </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>135</v>
       </c>
@@ -3230,15 +3285,15 @@
       <c r="C81" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>135</v>
       </c>
@@ -3248,15 +3303,15 @@
       <c r="C82" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>135</v>
       </c>
@@ -3266,15 +3321,15 @@
       <c r="C83" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>135</v>
       </c>
@@ -3284,15 +3339,15 @@
       <c r="C84" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>135</v>
       </c>
@@ -3302,15 +3357,15 @@
       <c r="C85" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>135</v>
       </c>
@@ -3320,15 +3375,15 @@
       <c r="C86" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="3">
         <v>60614</v>
       </c>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>135</v>
       </c>
@@ -3338,15 +3393,15 @@
       <c r="C87" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="1"/>
+      <c r="E87" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="3">
         <v>5894646484</v>
       </c>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>135</v>
       </c>
@@ -3356,15 +3411,15 @@
       <c r="C88" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>135</v>
       </c>
@@ -3374,15 +3429,15 @@
       <c r="C89" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>135</v>
       </c>
@@ -3392,15 +3447,15 @@
       <c r="C90" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="3">
         <v>40</v>
       </c>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>135</v>
       </c>
@@ -3410,15 +3465,15 @@
       <c r="C91" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>135</v>
       </c>
@@ -3428,15 +3483,15 @@
       <c r="C92" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" s="6" t="s">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>135</v>
       </c>
@@ -3446,15 +3501,15 @@
       <c r="C93" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>135</v>
       </c>
@@ -3464,15 +3519,15 @@
       <c r="C94" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>135</v>
       </c>
@@ -3482,15 +3537,15 @@
       <c r="C95" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>135</v>
       </c>
@@ -3500,15 +3555,15 @@
       <c r="C96" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>135</v>
       </c>
@@ -3518,15 +3573,15 @@
       <c r="C97" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>135</v>
       </c>
@@ -3536,15 +3591,15 @@
       <c r="C98" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" s="3">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" s="3">
         <v>60614</v>
       </c>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>135</v>
       </c>
@@ -3554,15 +3609,15 @@
       <c r="C99" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E99" s="3">
+      <c r="F99" s="3">
         <v>9034564114</v>
       </c>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>135</v>
       </c>
@@ -3572,15 +3627,15 @@
       <c r="C100" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>135</v>
       </c>
@@ -3590,15 +3645,15 @@
       <c r="C101" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>135</v>
       </c>
@@ -3608,15 +3663,15 @@
       <c r="C102" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>135</v>
       </c>
@@ -3626,15 +3681,15 @@
       <c r="C103" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" s="3">
         <v>100</v>
       </c>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>135</v>
       </c>
@@ -3644,15 +3699,15 @@
       <c r="C104" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>135</v>
       </c>
@@ -3662,15 +3717,15 @@
       <c r="C105" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>135</v>
       </c>
@@ -3680,15 +3735,15 @@
       <c r="C106" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>135</v>
       </c>
@@ -3698,15 +3753,15 @@
       <c r="C107" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E107" s="6" t="s">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>135</v>
       </c>
@@ -3716,15 +3771,15 @@
       <c r="C108" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" s="3">
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="3">
         <v>655856544</v>
       </c>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>135</v>
       </c>
@@ -3734,15 +3789,15 @@
       <c r="C109" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="1"/>
+      <c r="E109" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>135</v>
       </c>
@@ -3752,15 +3807,15 @@
       <c r="C110" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>135</v>
       </c>
@@ -3770,15 +3825,15 @@
       <c r="C111" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>135</v>
       </c>
@@ -3788,15 +3843,15 @@
       <c r="C112" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>135</v>
       </c>
@@ -3806,15 +3861,15 @@
       <c r="C113" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>135</v>
       </c>
@@ -3824,15 +3879,15 @@
       <c r="C114" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="3">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="3">
         <v>60453</v>
       </c>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>135</v>
       </c>
@@ -3842,15 +3897,15 @@
       <c r="C115" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E115" s="3">
+      <c r="F115" s="3">
         <v>7571596655</v>
       </c>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>135</v>
       </c>
@@ -3860,15 +3915,15 @@
       <c r="C116" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>201</v>
       </c>
@@ -3878,15 +3933,15 @@
       <c r="C117" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" s="3">
         <v>1200</v>
       </c>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>201</v>
       </c>
@@ -3896,15 +3951,15 @@
       <c r="C118" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" s="3">
         <v>4516</v>
       </c>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>201</v>
       </c>
@@ -3914,15 +3969,15 @@
       <c r="C119" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119" s="3">
         <v>10255</v>
       </c>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>201</v>
       </c>
@@ -3932,15 +3987,15 @@
       <c r="C120" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E120" s="3">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="3">
         <v>6500</v>
       </c>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>201</v>
       </c>
@@ -3950,15 +4005,15 @@
       <c r="C121" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" s="3">
         <v>15200</v>
       </c>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>201</v>
       </c>
@@ -3968,15 +4023,15 @@
       <c r="C122" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122" s="3">
         <v>3566</v>
       </c>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>201</v>
       </c>
@@ -3986,15 +4041,15 @@
       <c r="C123" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" s="3">
         <v>12000</v>
       </c>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>201</v>
       </c>
@@ -4004,15 +4059,15 @@
       <c r="C124" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E124" s="3">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="3">
         <v>15200</v>
       </c>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>201</v>
       </c>
@@ -4022,15 +4077,15 @@
       <c r="C125" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E125" s="3">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="3">
         <v>4500</v>
       </c>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>201</v>
       </c>
@@ -4040,15 +4095,15 @@
       <c r="C126" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E126" s="3">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" s="3">
         <v>5456</v>
       </c>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>201</v>
       </c>
@@ -4058,15 +4113,15 @@
       <c r="C127" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" s="3">
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" s="3">
         <v>6506</v>
       </c>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>201</v>
       </c>
@@ -4076,15 +4131,15 @@
       <c r="C128" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="3">
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="3">
         <v>9880</v>
       </c>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>201</v>
       </c>
@@ -4094,15 +4149,15 @@
       <c r="C129" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" s="3">
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="3">
         <v>55466</v>
       </c>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>201</v>
       </c>
@@ -4112,15 +4167,15 @@
       <c r="C130" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E130" s="3">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" s="3">
         <v>10225</v>
       </c>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>201</v>
       </c>
@@ -4130,15 +4185,15 @@
       <c r="C131" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="3">
         <v>200000</v>
       </c>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>201</v>
       </c>
@@ -4148,15 +4203,15 @@
       <c r="C132" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="F132" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>201</v>
       </c>
@@ -4166,15 +4221,15 @@
       <c r="C133" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>201</v>
       </c>
@@ -4184,15 +4239,15 @@
       <c r="C134" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>201</v>
       </c>
@@ -4202,15 +4257,15 @@
       <c r="C135" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>201</v>
       </c>
@@ -4220,15 +4275,15 @@
       <c r="C136" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>201</v>
       </c>
@@ -4238,15 +4293,15 @@
       <c r="C137" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>201</v>
       </c>
@@ -4256,15 +4311,15 @@
       <c r="C138" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>201</v>
       </c>
@@ -4274,15 +4329,15 @@
       <c r="C139" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="F139" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>201</v>
       </c>
@@ -4292,15 +4347,15 @@
       <c r="C140" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>201</v>
       </c>
@@ -4310,15 +4365,15 @@
       <c r="C141" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>201</v>
       </c>
@@ -4328,15 +4383,15 @@
       <c r="C142" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>201</v>
       </c>
@@ -4346,15 +4401,15 @@
       <c r="C143" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>201</v>
       </c>
@@ -4364,15 +4419,15 @@
       <c r="C144" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>201</v>
       </c>
@@ -4382,15 +4437,15 @@
       <c r="C145" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>243</v>
       </c>
@@ -4400,15 +4455,15 @@
       <c r="C146" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>243</v>
       </c>
@@ -4418,15 +4473,15 @@
       <c r="C147" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>249</v>
       </c>
@@ -4436,15 +4491,15 @@
       <c r="C148" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E148" s="3">
+      <c r="F148" s="3">
         <v>3</v>
       </c>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>249</v>
       </c>
@@ -4454,15 +4509,15 @@
       <c r="C149" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E149" s="3">
+      <c r="F149" s="3">
         <v>2</v>
       </c>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>249</v>
       </c>
@@ -4472,15 +4527,15 @@
       <c r="C150" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>249</v>
       </c>
@@ -4490,15 +4545,15 @@
       <c r="C151" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>249</v>
       </c>
@@ -4508,15 +4563,15 @@
       <c r="C152" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E152" s="3">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" s="3">
         <v>80000</v>
       </c>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>249</v>
       </c>
@@ -4526,15 +4581,15 @@
       <c r="C153" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E153" s="3">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="3">
         <v>12245</v>
       </c>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>249</v>
       </c>
@@ -4544,15 +4599,15 @@
       <c r="C154" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>249</v>
       </c>
@@ -4562,15 +4617,15 @@
       <c r="C155" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>249</v>
       </c>
@@ -4580,15 +4635,15 @@
       <c r="C156" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>249</v>
       </c>
@@ -4598,15 +4653,15 @@
       <c r="C157" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" s="3">
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" s="3">
         <v>45000</v>
       </c>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>249</v>
       </c>
@@ -4616,15 +4671,15 @@
       <c r="C158" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" s="3">
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F158" s="3">
         <v>44454</v>
       </c>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>249</v>
       </c>
@@ -4634,15 +4689,15 @@
       <c r="C159" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>249</v>
       </c>
@@ -4652,15 +4707,15 @@
       <c r="C160" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="F160" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>249</v>
       </c>
@@ -4670,15 +4725,15 @@
       <c r="C161" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>249</v>
       </c>
@@ -4688,15 +4743,15 @@
       <c r="C162" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E162" s="3">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F162" s="3">
         <v>20000</v>
       </c>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>285</v>
       </c>
@@ -4706,15 +4761,15 @@
       <c r="C163" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="3"/>
+      <c r="E163" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="F163" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F163" s="3"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>285</v>
       </c>
@@ -4724,15 +4779,15 @@
       <c r="C164" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F164" s="3"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>285</v>
       </c>
@@ -4742,15 +4797,15 @@
       <c r="C165" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E165" s="6" t="s">
+      <c r="D165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="F165" s="3"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>285</v>
       </c>
@@ -4760,15 +4815,15 @@
       <c r="C166" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="3"/>
+      <c r="E166" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F166" s="3"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>285</v>
       </c>
@@ -4778,15 +4833,15 @@
       <c r="C167" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="3"/>
+      <c r="E167" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F167" s="3"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>285</v>
       </c>
@@ -4796,15 +4851,15 @@
       <c r="C168" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="3"/>
+      <c r="E168" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="F168" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F168" s="3"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>285</v>
       </c>
@@ -4814,15 +4869,15 @@
       <c r="C169" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="F169" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F169" s="3"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>285</v>
       </c>
@@ -4832,15 +4887,15 @@
       <c r="C170" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F170" s="3"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>285</v>
       </c>
@@ -4850,15 +4905,15 @@
       <c r="C171" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F171" s="3"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>285</v>
       </c>
@@ -4868,15 +4923,15 @@
       <c r="C172" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>285</v>
       </c>
@@ -4886,15 +4941,15 @@
       <c r="C173" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E173" s="3">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F173" s="3">
         <v>654659565</v>
       </c>
-      <c r="F173" s="3"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>285</v>
       </c>
@@ -4904,15 +4959,15 @@
       <c r="C174" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E174" s="3">
+      <c r="F174" s="3">
         <v>5482567788</v>
       </c>
-      <c r="F174" s="3"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>285</v>
       </c>
@@ -4922,15 +4977,15 @@
       <c r="C175" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F175" s="3"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>285</v>
       </c>
@@ -4940,15 +4995,15 @@
       <c r="C176" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F176" s="3"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>285</v>
       </c>
@@ -4958,15 +5013,15 @@
       <c r="C177" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="F177" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F177" s="3"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>285</v>
       </c>
@@ -4976,15 +5031,15 @@
       <c r="C178" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E178" s="6" t="s">
+      <c r="D178" s="3"/>
+      <c r="E178" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F178" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F178" s="3"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>285</v>
       </c>
@@ -4994,15 +5049,15 @@
       <c r="C179" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="3"/>
+      <c r="E179" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="F179" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F179" s="3"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>285</v>
       </c>
@@ -5012,15 +5067,15 @@
       <c r="C180" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="3"/>
+      <c r="E180" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="F180" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F180" s="3"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>285</v>
       </c>
@@ -5030,15 +5085,15 @@
       <c r="C181" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F181" s="3"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>285</v>
       </c>
@@ -5048,15 +5103,15 @@
       <c r="C182" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="3"/>
+      <c r="E182" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F182" s="3"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>285</v>
       </c>
@@ -5066,15 +5121,15 @@
       <c r="C183" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E183" s="6" t="s">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>285</v>
       </c>
@@ -5084,15 +5139,15 @@
       <c r="C184" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>285</v>
       </c>
@@ -5102,15 +5157,15 @@
       <c r="C185" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F185" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F185" s="3"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>285</v>
       </c>
@@ -5120,15 +5175,15 @@
       <c r="C186" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="3"/>
+      <c r="E186" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>285</v>
       </c>
@@ -5138,15 +5193,15 @@
       <c r="C187" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E187" s="3">
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F187" s="3">
         <v>68664</v>
       </c>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>285</v>
       </c>
@@ -5156,15 +5211,15 @@
       <c r="C188" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E188" s="3">
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F188" s="3">
         <v>6946495656</v>
       </c>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>285</v>
       </c>
@@ -5174,15 +5229,15 @@
       <c r="C189" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F189" s="3"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>285</v>
       </c>
@@ -5192,15 +5247,15 @@
       <c r="C190" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="F190" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F190" s="3"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>285</v>
       </c>
@@ -5210,15 +5265,15 @@
       <c r="C191" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="F191" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F191" s="3"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>285</v>
       </c>
@@ -5228,15 +5283,15 @@
       <c r="C192" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="3"/>
+      <c r="E192" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="F192" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F192" s="3"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>285</v>
       </c>
@@ -5246,15 +5301,15 @@
       <c r="C193" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="3"/>
+      <c r="E193" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="F193" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>285</v>
       </c>
@@ -5264,15 +5319,15 @@
       <c r="C194" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F194" s="3"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>285</v>
       </c>
@@ -5282,15 +5337,15 @@
       <c r="C195" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="3"/>
+      <c r="E195" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="F195" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F195" s="3"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>272</v>
       </c>
@@ -5300,15 +5355,15 @@
       <c r="C196" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F196" s="3"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>272</v>
       </c>
@@ -5318,15 +5373,15 @@
       <c r="C197" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F197" s="3"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>272</v>
       </c>
@@ -5336,15 +5391,15 @@
       <c r="C198" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F198" s="3"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>272</v>
       </c>
@@ -5354,15 +5409,15 @@
       <c r="C199" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F199" s="3"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>272</v>
       </c>
@@ -5372,15 +5427,15 @@
       <c r="C200" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E200" s="4">
+      <c r="D200" s="3"/>
+      <c r="E200" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F200" s="4">
         <v>307070115</v>
       </c>
-      <c r="F200" s="3"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>272</v>
       </c>
@@ -5390,15 +5445,15 @@
       <c r="C201" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E201" s="3">
+      <c r="D201" s="3"/>
+      <c r="E201" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F201" s="3">
         <v>561988255</v>
       </c>
-      <c r="F201" s="3"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>272</v>
       </c>
@@ -5408,15 +5463,15 @@
       <c r="C202" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="3"/>
+      <c r="E202" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="F202" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F202" s="3"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>272</v>
       </c>
@@ -5426,15 +5481,15 @@
       <c r="C203" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F203" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F203" s="3"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>272</v>
       </c>
@@ -5444,15 +5499,15 @@
       <c r="C204" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F204" s="3"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>272</v>
       </c>
@@ -5462,15 +5517,15 @@
       <c r="C205" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="F205" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F205" s="3"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>272</v>
       </c>
@@ -5480,15 +5535,15 @@
       <c r="C206" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E206" s="3">
+      <c r="D206" s="3"/>
+      <c r="E206" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F206" s="3">
         <v>45466</v>
       </c>
-      <c r="F206" s="3"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>348</v>
       </c>
@@ -5498,15 +5553,15 @@
       <c r="C207" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="3"/>
+      <c r="E207" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="F207" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F207" s="3"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>348</v>
       </c>
@@ -5514,15 +5569,17 @@
         <v>348</v>
       </c>
       <c r="C208" s="3"/>
-      <c r="D208" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E208" s="3">
+      <c r="D208" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F208" s="3">
         <v>5</v>
       </c>
-      <c r="F208" s="3"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>348</v>
       </c>
@@ -5530,15 +5587,17 @@
         <v>348</v>
       </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E209" s="3">
+      <c r="D209" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F209" s="3">
         <v>15</v>
       </c>
-      <c r="F209" s="3"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>348</v>
       </c>
@@ -5546,15 +5605,17 @@
         <v>348</v>
       </c>
       <c r="C210" s="3"/>
-      <c r="D210" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E210" s="3">
+      <c r="D210" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F210" s="3">
         <v>4</v>
       </c>
-      <c r="F210" s="3"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>348</v>
       </c>
@@ -5562,15 +5623,17 @@
         <v>348</v>
       </c>
       <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E211" s="7">
+      <c r="D211" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F211" s="7">
         <v>25.75</v>
       </c>
-      <c r="F211" s="3"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>348</v>
       </c>
@@ -5578,15 +5641,17 @@
         <v>348</v>
       </c>
       <c r="C212" s="3"/>
-      <c r="D212" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E212" s="3">
+      <c r="D212" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F212" s="3">
         <v>20</v>
       </c>
-      <c r="F212" s="3"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>348</v>
       </c>
@@ -5594,15 +5659,17 @@
         <v>348</v>
       </c>
       <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E213" s="3">
+      <c r="D213" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F213" s="3">
         <v>12</v>
       </c>
-      <c r="F213" s="3"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>348</v>
       </c>
@@ -5610,15 +5677,17 @@
         <v>348</v>
       </c>
       <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E214" s="3">
+      <c r="D214" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F214" s="3">
         <v>2</v>
       </c>
-      <c r="F214" s="3"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>348</v>
       </c>
@@ -5626,15 +5695,17 @@
         <v>348</v>
       </c>
       <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E215" s="3">
+      <c r="D215" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" s="3">
         <v>12.25</v>
       </c>
-      <c r="F215" s="3"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>348</v>
       </c>
@@ -5642,15 +5713,17 @@
         <v>348</v>
       </c>
       <c r="C216" s="3"/>
-      <c r="D216" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E216" s="3">
+      <c r="D216" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F216" s="3">
         <v>4</v>
       </c>
-      <c r="F216" s="3"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>351</v>
       </c>
@@ -5660,15 +5733,15 @@
       <c r="C217" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="3"/>
+      <c r="E217" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E217" s="3">
+      <c r="F217" s="3">
         <v>2</v>
       </c>
-      <c r="F217" s="3"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>351</v>
       </c>
@@ -5678,15 +5751,15 @@
       <c r="C218" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="3"/>
+      <c r="E218" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="F218" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F218" s="3"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>351</v>
       </c>
@@ -5696,15 +5769,15 @@
       <c r="C219" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D219" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F219" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F219" s="3"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>351</v>
       </c>
@@ -5714,15 +5787,15 @@
       <c r="C220" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D220" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D220" s="3"/>
       <c r="E220" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F220" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F220" s="3"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>351</v>
       </c>
@@ -5732,15 +5805,15 @@
       <c r="C221" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D221" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F221" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F221" s="3"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>351</v>
       </c>
@@ -5750,15 +5823,15 @@
       <c r="C222" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D222" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E222" s="3">
+      <c r="D222" s="3"/>
+      <c r="E222" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F222" s="3">
         <v>11225</v>
       </c>
-      <c r="F222" s="3"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>351</v>
       </c>
@@ -5768,15 +5841,15 @@
       <c r="C223" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D223" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E223" s="3">
+      <c r="D223" s="3"/>
+      <c r="E223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F223" s="3">
         <v>456789</v>
       </c>
-      <c r="F223" s="3"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>351</v>
       </c>
@@ -5786,15 +5859,15 @@
       <c r="C224" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D224" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E224" s="3">
+      <c r="D224" s="3"/>
+      <c r="E224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F224" s="3">
         <v>961122</v>
       </c>
-      <c r="F224" s="3"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>351</v>
       </c>
@@ -5804,15 +5877,15 @@
       <c r="C225" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D225" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F225" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F225" s="3"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>351</v>
       </c>
@@ -5822,15 +5895,15 @@
       <c r="C226" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E226" s="3">
+      <c r="D226" s="3"/>
+      <c r="E226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F226" s="3">
         <v>5554257788</v>
       </c>
-      <c r="F226" s="3"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>351</v>
       </c>
@@ -5840,15 +5913,15 @@
       <c r="C227" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="D227" s="3"/>
+      <c r="E227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F227" s="3"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>351</v>
       </c>
@@ -5858,15 +5931,15 @@
       <c r="C228" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E228" s="3">
+      <c r="D228" s="3"/>
+      <c r="E228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F228" s="3">
         <v>65</v>
       </c>
-      <c r="F228" s="3"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>351</v>
       </c>
@@ -5876,15 +5949,15 @@
       <c r="C229" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="3"/>
+      <c r="E229" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="F229" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F229" s="3"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>351</v>
       </c>
@@ -5894,15 +5967,15 @@
       <c r="C230" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="3"/>
+      <c r="E230" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="F230" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F230" s="3"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>351</v>
       </c>
@@ -5912,15 +5985,15 @@
       <c r="C231" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D231" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D231" s="3"/>
       <c r="E231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F231" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F231" s="3"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>351</v>
       </c>
@@ -5930,15 +6003,15 @@
       <c r="C232" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D232" s="3"/>
       <c r="E232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F232" s="3"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>351</v>
       </c>
@@ -5946,17 +6019,17 @@
         <v>352</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D233" s="3"/>
       <c r="E233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F233" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F233" s="3"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>351</v>
       </c>
@@ -5966,15 +6039,15 @@
       <c r="C234" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D234" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E234" s="3">
+      <c r="D234" s="3"/>
+      <c r="E234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F234" s="3">
         <v>133544</v>
       </c>
-      <c r="F234" s="3"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>351</v>
       </c>
@@ -5984,15 +6057,15 @@
       <c r="C235" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E235" s="3">
+      <c r="D235" s="3"/>
+      <c r="E235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F235" s="3">
         <v>456455</v>
       </c>
-      <c r="F235" s="3"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>351</v>
       </c>
@@ -6002,15 +6075,15 @@
       <c r="C236" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D236" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E236" s="3">
+      <c r="D236" s="3"/>
+      <c r="E236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F236" s="3">
         <v>336699</v>
       </c>
-      <c r="F236" s="3"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>351</v>
       </c>
@@ -6020,15 +6093,15 @@
       <c r="C237" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D237" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D237" s="3"/>
       <c r="E237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F237" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F237" s="3"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>351</v>
       </c>
@@ -6038,15 +6111,15 @@
       <c r="C238" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E238" s="3">
+      <c r="D238" s="3"/>
+      <c r="E238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F238" s="3">
         <v>9554542233</v>
       </c>
-      <c r="F238" s="3"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>351</v>
       </c>
@@ -6056,15 +6129,15 @@
       <c r="C239" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D239" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E239" s="2" t="s">
+      <c r="D239" s="3"/>
+      <c r="E239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F239" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F239" s="3"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>351</v>
       </c>
@@ -6074,15 +6147,15 @@
       <c r="C240" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E240" s="3">
+      <c r="D240" s="3"/>
+      <c r="E240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F240" s="3">
         <v>35</v>
       </c>
-      <c r="F240" s="3"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>351</v>
       </c>
@@ -6092,15 +6165,15 @@
       <c r="C241" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="3"/>
+      <c r="E241" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="F241" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F241" s="3"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>351</v>
       </c>
@@ -6110,30 +6183,30 @@
       <c r="C242" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="3"/>
+      <c r="E242" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="F242" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F242" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F242" xr:uid="{A40C238A-A12B-4AFE-B037-B65E78A076E7}"/>
-  <conditionalFormatting sqref="C243:C1048576">
+  <conditionalFormatting sqref="C243:D1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" display="mailto:test@a1.com" xr:uid="{BF7411DA-4EB2-4F53-BF8A-FE6396493F3F}"/>
-    <hyperlink ref="E49" r:id="rId2" display="mailto:test@ann.com" xr:uid="{217C21E6-82A6-45B9-BF96-D770486317A5}"/>
-    <hyperlink ref="E70" r:id="rId3" display="mailto:test@jointann.com" xr:uid="{49AFFBE1-451A-439A-B7D8-47527E79E55B}"/>
-    <hyperlink ref="E88" r:id="rId4" display="mailto:test@primarybene1.com" xr:uid="{2C8F1CD2-35E4-4D40-90D0-927DD79936C9}"/>
-    <hyperlink ref="E100" r:id="rId5" display="mailto:primbene2@new.com" xr:uid="{9051BB04-90EB-4ACD-86FE-0C6F065754AA}"/>
-    <hyperlink ref="E116" r:id="rId6" display="mailto:contingent@bene.com" xr:uid="{13D1F1E1-A589-432B-97A4-AA8453225930}"/>
-    <hyperlink ref="E175" r:id="rId7" display="mailto:exch1@repl.com" xr:uid="{B699F0FE-0544-4EEE-ACA4-F54BDDFECA0D}"/>
-    <hyperlink ref="E189" r:id="rId8" display="mailto:exch2@replace.com" xr:uid="{1B81E59D-B7DE-4BE3-8ADE-851A6B84B302}"/>
-    <hyperlink ref="E227" r:id="rId9" display="mailto:agent@p1.com" xr:uid="{9858A902-9AAA-427F-A77E-38E4EE252B73}"/>
-    <hyperlink ref="E239" r:id="rId10" display="mailto:add@agent2.com" xr:uid="{7BFBC74B-E061-4B7F-B8C9-45915CD4E343}"/>
+    <hyperlink ref="F27" r:id="rId1" display="mailto:test@a1.com" xr:uid="{BF7411DA-4EB2-4F53-BF8A-FE6396493F3F}"/>
+    <hyperlink ref="F49" r:id="rId2" display="mailto:test@ann.com" xr:uid="{217C21E6-82A6-45B9-BF96-D770486317A5}"/>
+    <hyperlink ref="F70" r:id="rId3" display="mailto:test@jointann.com" xr:uid="{49AFFBE1-451A-439A-B7D8-47527E79E55B}"/>
+    <hyperlink ref="F88" r:id="rId4" display="mailto:test@primarybene1.com" xr:uid="{2C8F1CD2-35E4-4D40-90D0-927DD79936C9}"/>
+    <hyperlink ref="F100" r:id="rId5" display="mailto:primbene2@new.com" xr:uid="{9051BB04-90EB-4ACD-86FE-0C6F065754AA}"/>
+    <hyperlink ref="F116" r:id="rId6" display="mailto:contingent@bene.com" xr:uid="{13D1F1E1-A589-432B-97A4-AA8453225930}"/>
+    <hyperlink ref="F175" r:id="rId7" display="mailto:exch1@repl.com" xr:uid="{B699F0FE-0544-4EEE-ACA4-F54BDDFECA0D}"/>
+    <hyperlink ref="F189" r:id="rId8" display="mailto:exch2@replace.com" xr:uid="{1B81E59D-B7DE-4BE3-8ADE-851A6B84B302}"/>
+    <hyperlink ref="F227" r:id="rId9" display="mailto:agent@p1.com" xr:uid="{9858A902-9AAA-427F-A77E-38E4EE252B73}"/>
+    <hyperlink ref="F239" r:id="rId10" display="mailto:add@agent2.com" xr:uid="{7BFBC74B-E061-4B7F-B8C9-45915CD4E343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6147,16 +6220,16 @@
       <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -6174,7 +6247,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
@@ -6192,7 +6265,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -6210,7 +6283,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
@@ -6228,7 +6301,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -6246,7 +6319,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -6264,7 +6337,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
@@ -6282,7 +6355,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -6300,7 +6373,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
@@ -6318,7 +6391,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -6336,7 +6409,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
@@ -6354,7 +6427,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
@@ -6372,7 +6445,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -6390,7 +6463,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
@@ -6408,7 +6481,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -6426,7 +6499,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -6444,7 +6517,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -6462,7 +6535,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -6480,7 +6553,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -6498,7 +6571,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -6516,7 +6589,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
@@ -6534,7 +6607,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -6552,7 +6625,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
@@ -6570,7 +6643,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
@@ -6588,7 +6661,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
@@ -6606,7 +6679,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
@@ -6624,7 +6697,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>37</v>
       </c>
@@ -6642,7 +6715,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
@@ -6660,7 +6733,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>68</v>
       </c>
@@ -6678,7 +6751,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -6696,7 +6769,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
@@ -6714,7 +6787,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -6732,7 +6805,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
@@ -6750,7 +6823,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -6768,7 +6841,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
@@ -6786,7 +6859,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>68</v>
       </c>
@@ -6804,7 +6877,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>68</v>
       </c>
@@ -6822,7 +6895,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>68</v>
       </c>
@@ -6840,7 +6913,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>68</v>
       </c>
@@ -6858,7 +6931,7 @@
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>68</v>
       </c>
@@ -6876,7 +6949,7 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>68</v>
       </c>
@@ -6894,7 +6967,7 @@
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>68</v>
       </c>
@@ -6912,7 +6985,7 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
@@ -6930,7 +7003,7 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>68</v>
       </c>
@@ -6948,7 +7021,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>68</v>
       </c>
@@ -6966,7 +7039,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>68</v>
       </c>
@@ -6984,7 +7057,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>68</v>
       </c>
@@ -7002,7 +7075,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>68</v>
       </c>
@@ -7020,7 +7093,7 @@
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>68</v>
       </c>
@@ -7038,7 +7111,7 @@
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>68</v>
       </c>
@@ -7056,7 +7129,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>68</v>
       </c>
@@ -7074,7 +7147,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>68</v>
       </c>
@@ -7092,7 +7165,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>68</v>
       </c>
@@ -7110,7 +7183,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>68</v>
       </c>
@@ -7128,7 +7201,7 @@
       </c>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>68</v>
       </c>
@@ -7146,7 +7219,7 @@
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>68</v>
       </c>
@@ -7164,7 +7237,7 @@
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>68</v>
       </c>
@@ -7182,7 +7255,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>68</v>
       </c>
@@ -7200,7 +7273,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>68</v>
       </c>
@@ -7218,7 +7291,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
@@ -7236,7 +7309,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>68</v>
       </c>
@@ -7254,7 +7327,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
@@ -7272,7 +7345,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
@@ -7290,7 +7363,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>68</v>
       </c>
@@ -7308,7 +7381,7 @@
       </c>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>68</v>
       </c>
@@ -7326,7 +7399,7 @@
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>68</v>
       </c>
@@ -7344,7 +7417,7 @@
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>68</v>
       </c>
@@ -7362,7 +7435,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -7380,7 +7453,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>68</v>
       </c>
@@ -7398,7 +7471,7 @@
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
@@ -7416,7 +7489,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>135</v>
       </c>
@@ -7434,7 +7507,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>135</v>
       </c>
@@ -7452,7 +7525,7 @@
       </c>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>135</v>
       </c>
@@ -7470,7 +7543,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>135</v>
       </c>
@@ -7488,7 +7561,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>135</v>
       </c>
@@ -7506,7 +7579,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>135</v>
       </c>
@@ -7524,7 +7597,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>135</v>
       </c>
@@ -7542,7 +7615,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>135</v>
       </c>
@@ -7560,7 +7633,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>135</v>
       </c>
@@ -7578,7 +7651,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>135</v>
       </c>
@@ -7596,7 +7669,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>135</v>
       </c>
@@ -7614,7 +7687,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>135</v>
       </c>
@@ -7632,7 +7705,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>135</v>
       </c>
@@ -7650,7 +7723,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>135</v>
       </c>
@@ -7668,7 +7741,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>135</v>
       </c>
@@ -7686,7 +7759,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>135</v>
       </c>
@@ -7704,7 +7777,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>135</v>
       </c>
@@ -7722,7 +7795,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>135</v>
       </c>
@@ -7740,7 +7813,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>135</v>
       </c>
@@ -7758,7 +7831,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>135</v>
       </c>
@@ -7776,7 +7849,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>135</v>
       </c>
@@ -7794,7 +7867,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>135</v>
       </c>
@@ -7812,7 +7885,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>135</v>
       </c>
@@ -7830,7 +7903,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>135</v>
       </c>
@@ -7848,7 +7921,7 @@
       </c>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>135</v>
       </c>
@@ -7866,7 +7939,7 @@
       </c>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>135</v>
       </c>
@@ -7884,7 +7957,7 @@
       </c>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>135</v>
       </c>
@@ -7902,7 +7975,7 @@
       </c>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>135</v>
       </c>
@@ -7920,7 +7993,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>135</v>
       </c>
@@ -7938,7 +8011,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>135</v>
       </c>
@@ -7956,7 +8029,7 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>135</v>
       </c>
@@ -7974,7 +8047,7 @@
       </c>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>135</v>
       </c>
@@ -7992,7 +8065,7 @@
       </c>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>135</v>
       </c>
@@ -8010,7 +8083,7 @@
       </c>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>135</v>
       </c>
@@ -8028,7 +8101,7 @@
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>135</v>
       </c>
@@ -8046,7 +8119,7 @@
       </c>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>135</v>
       </c>
@@ -8064,7 +8137,7 @@
       </c>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>135</v>
       </c>
@@ -8082,7 +8155,7 @@
       </c>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>135</v>
       </c>
@@ -8100,7 +8173,7 @@
       </c>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>135</v>
       </c>
@@ -8118,7 +8191,7 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>135</v>
       </c>
@@ -8136,7 +8209,7 @@
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>135</v>
       </c>
@@ -8154,7 +8227,7 @@
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>135</v>
       </c>
@@ -8172,7 +8245,7 @@
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>135</v>
       </c>
@@ -8190,7 +8263,7 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>135</v>
       </c>
@@ -8208,7 +8281,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>135</v>
       </c>
@@ -8226,7 +8299,7 @@
       </c>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>135</v>
       </c>
@@ -8244,7 +8317,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>201</v>
       </c>
@@ -8262,7 +8335,7 @@
       </c>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>201</v>
       </c>
@@ -8280,7 +8353,7 @@
       </c>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>201</v>
       </c>
@@ -8298,7 +8371,7 @@
       </c>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>201</v>
       </c>
@@ -8316,7 +8389,7 @@
       </c>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>201</v>
       </c>
@@ -8334,7 +8407,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>201</v>
       </c>
@@ -8352,7 +8425,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>201</v>
       </c>
@@ -8370,7 +8443,7 @@
       </c>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>201</v>
       </c>
@@ -8388,7 +8461,7 @@
       </c>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>201</v>
       </c>
@@ -8406,7 +8479,7 @@
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>201</v>
       </c>
@@ -8424,7 +8497,7 @@
       </c>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>201</v>
       </c>
@@ -8442,7 +8515,7 @@
       </c>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>201</v>
       </c>
@@ -8460,7 +8533,7 @@
       </c>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>201</v>
       </c>
@@ -8478,7 +8551,7 @@
       </c>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>201</v>
       </c>
@@ -8496,7 +8569,7 @@
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>201</v>
       </c>
@@ -8514,7 +8587,7 @@
       </c>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>201</v>
       </c>
@@ -8532,7 +8605,7 @@
       </c>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>201</v>
       </c>
@@ -8550,7 +8623,7 @@
       </c>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>201</v>
       </c>
@@ -8568,7 +8641,7 @@
       </c>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>201</v>
       </c>
@@ -8586,7 +8659,7 @@
       </c>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>201</v>
       </c>
@@ -8604,7 +8677,7 @@
       </c>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>201</v>
       </c>
@@ -8622,7 +8695,7 @@
       </c>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>201</v>
       </c>
@@ -8640,7 +8713,7 @@
       </c>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>201</v>
       </c>
@@ -8658,7 +8731,7 @@
       </c>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>201</v>
       </c>
@@ -8676,7 +8749,7 @@
       </c>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>201</v>
       </c>
@@ -8694,7 +8767,7 @@
       </c>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>201</v>
       </c>
@@ -8712,7 +8785,7 @@
       </c>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>201</v>
       </c>
@@ -8730,7 +8803,7 @@
       </c>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>201</v>
       </c>
@@ -8748,7 +8821,7 @@
       </c>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>201</v>
       </c>
@@ -8791,12 +8864,12 @@
       <selection activeCell="A234" sqref="A234:C235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8805,7 +8878,7 @@
         <v>Juridiction</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8813,7 +8886,7 @@
         <v>ProductType</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8821,7 +8894,7 @@
         <v>Owner_Type</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8829,7 +8902,7 @@
         <v>Plan_Type</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -8837,7 +8910,7 @@
         <v>Annuitant_SameAsOwner</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -8845,7 +8918,7 @@
         <v>JointAnnuitant_Add</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8853,7 +8926,7 @@
         <v>Owner_FirstName</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -8861,7 +8934,7 @@
         <v>Owner_MiddleName</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8869,7 +8942,7 @@
         <v>Owner_LastName</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -8877,7 +8950,7 @@
         <v>Owner_DOB</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -8885,7 +8958,7 @@
         <v>Owner_SSN</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -8893,7 +8966,7 @@
         <v>Owner_Gender</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -8901,7 +8974,7 @@
         <v>Owner_Address_Lookup</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -8909,7 +8982,7 @@
         <v>Mailing Address Lookup</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8917,7 +8990,7 @@
         <v>Owner_MailingAddress1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -8925,7 +8998,7 @@
         <v>Owner_MailingAddress_City</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -8933,7 +9006,7 @@
         <v>Owner_MailingAddress_State</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -8941,7 +9014,7 @@
         <v>Owner_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -8949,7 +9022,7 @@
         <v>Owner_MailingAddress_Different</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -8957,7 +9030,7 @@
         <v>Owner_ResidentialAddress_Lookup</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -8965,7 +9038,7 @@
         <v>Owner_ResidentialAddress1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -8973,7 +9046,7 @@
         <v>Owner_ResidentialAddress_City</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -8981,7 +9054,7 @@
         <v>Owner_ResidentialAddress_State</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -8989,7 +9062,7 @@
         <v>Owner_ResidentialAddress_Zipcode</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -8997,7 +9070,7 @@
         <v>Owner_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -9005,7 +9078,7 @@
         <v>Owner_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -9013,7 +9086,7 @@
         <v>Owner_Citizen_US</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -9021,7 +9094,7 @@
         <v>Annuitant_FirstName</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -9029,7 +9102,7 @@
         <v>Annuitant_MiddleName</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -9037,7 +9110,7 @@
         <v>Annuitant_LastName</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -9045,7 +9118,7 @@
         <v>Annuitant_DOB</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -9053,7 +9126,7 @@
         <v>Annuitant_SSN</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -9061,7 +9134,7 @@
         <v>Annuitant_Gender</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -9069,7 +9142,7 @@
         <v>Annuitant_Relationship</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -9077,7 +9150,7 @@
         <v>Annuitant_SameAsOwnerAddress</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -9085,7 +9158,7 @@
         <v>Annuitant_Address_Lookup</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -9093,7 +9166,7 @@
         <v>Annuitant_MailingAddress1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -9101,7 +9174,7 @@
         <v>Annuitant_MailingAddress_City</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -9109,7 +9182,7 @@
         <v>Annuitant_MailingAddress_State</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -9117,7 +9190,7 @@
         <v>Annuitant_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -9125,7 +9198,7 @@
         <v>Annuitant_MailingAddress_Different</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -9133,7 +9206,7 @@
         <v>Annuitant_ResidentialAddress_Lookup</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -9141,7 +9214,7 @@
         <v>Annuitant_ResidentialAddress1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -9149,7 +9222,7 @@
         <v>Annuitant_ResidentialAddress_City</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -9157,7 +9230,7 @@
         <v>Annuitant_ResidentialAddress_State</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -9165,7 +9238,7 @@
         <v>Annuitant_ResidentialAddress_Zipcode</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -9173,7 +9246,7 @@
         <v>Annuitant_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -9181,7 +9254,7 @@
         <v>Annuitant_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -9189,7 +9262,7 @@
         <v>JointAnnuitant_FirstName</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -9197,7 +9270,7 @@
         <v>JointAnnuitant_MiddleName</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -9205,7 +9278,7 @@
         <v>JointAnnuitant_LastName</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -9213,7 +9286,7 @@
         <v>JointAnnuitant_DOB</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -9221,7 +9294,7 @@
         <v>JointAnnuitant_SSN</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -9229,7 +9302,7 @@
         <v>JointAnnuitant_Gender</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -9237,7 +9310,7 @@
         <v>JointAnnuitant_Relationship</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -9245,7 +9318,7 @@
         <v>JointAnnuitant_SameAsOwnerAddress</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -9253,7 +9326,7 @@
         <v>JointAnnuitant_Address_Lookup</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -9261,7 +9334,7 @@
         <v>JointAnnuitant_MailingAddress1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -9269,7 +9342,7 @@
         <v>JointAnnuitant_MailingAddress_City</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -9277,7 +9350,7 @@
         <v>JointAnnuitant_MailingAddress_State</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -9285,7 +9358,7 @@
         <v>JointAnnuitant_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -9293,7 +9366,7 @@
         <v>JointAnnuitant_MailingAddress_Different</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -9301,7 +9374,7 @@
         <v>JointAnnuitant_ResidentialAddress_Lookup</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -9309,7 +9382,7 @@
         <v>JointAnnuitant_ResidentialAddress1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -9317,7 +9390,7 @@
         <v>JointAnnuitant_ResidentialAddress_City</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -9325,7 +9398,7 @@
         <v>JointAnnuitant_ResidentialAddress_State</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -9333,7 +9406,7 @@
         <v>JointAnnuitant_ResidentialAddress_Zipcode</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -9341,7 +9414,7 @@
         <v>JointAnnuitant_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -9349,7 +9422,7 @@
         <v>JointAnnuitant_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -9357,7 +9430,7 @@
         <v>PrimaryBeneficiary_NumberofBeneficiaries</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -9365,7 +9438,7 @@
         <v>ContingentBeneficiary_NumberofBeneficiaries</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -9373,7 +9446,7 @@
         <v>PrimaryBeneficiary_Percentage_Total</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -9381,7 +9454,7 @@
         <v>ContingentBeneficiary_Percentage_Total</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -9389,7 +9462,7 @@
         <v>PrimaryBeneficiary_Natural</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -9397,7 +9470,7 @@
         <v>PrimaryBeneficiary_Relationship</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -9405,7 +9478,7 @@
         <v>PrimaryBeneficiary_Percentage</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -9413,7 +9486,7 @@
         <v>PrimaryBeneficiary_FirstName</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -9421,7 +9494,7 @@
         <v>PrimaryBeneficiary_MiddleName</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -9429,7 +9502,7 @@
         <v>PrimaryBeneficiary_LastName</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -9437,7 +9510,7 @@
         <v>PrimaryBeneficiary_DOB</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>147</v>
       </c>
@@ -9445,7 +9518,7 @@
         <v>PrimaryBeneficiary_SSN</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -9453,7 +9526,7 @@
         <v>PrimaryBeneficiary_Gender</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -9461,7 +9534,7 @@
         <v>PrimaryBeneficiary_Address_Lookup</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>150</v>
       </c>
@@ -9469,7 +9542,7 @@
         <v>PrimaryBeneficiary_MailingAddress1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -9477,7 +9550,7 @@
         <v>PrimaryBeneficiary_MailingAddress_City</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -9485,7 +9558,7 @@
         <v>PrimaryBeneficiary_MailingAddress_State</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -9493,7 +9566,7 @@
         <v>PrimaryBeneficiary_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>154</v>
       </c>
@@ -9501,7 +9574,7 @@
         <v>PrimaryBeneficiary_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -9509,7 +9582,7 @@
         <v>PrimaryBeneficiary_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>159</v>
       </c>
@@ -9517,7 +9590,7 @@
         <v>PrimaryBeneficiary2_Natural</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -9525,7 +9598,7 @@
         <v>PrimaryBeneficiary2_Relationship</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -9533,7 +9606,7 @@
         <v>PrimaryBeneficiary2_Percentage</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -9541,7 +9614,7 @@
         <v>PrimaryBeneficiary2_NonNaturalName</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -9549,7 +9622,7 @@
         <v>PrimaryBeneficiary2_TrustDate</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>165</v>
       </c>
@@ -9557,7 +9630,7 @@
         <v>PrimaryBeneficiary2_TIN</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -9565,7 +9638,7 @@
         <v>PrimaryBeneficiary2_Address_Lookup</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -9573,7 +9646,7 @@
         <v>PrimaryBeneficiary2_MailingAddress1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -9581,7 +9654,7 @@
         <v>PrimaryBeneficiary2_MailingAddress_City</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -9589,7 +9662,7 @@
         <v>PrimaryBeneficiary2_MailingAddress_State</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>170</v>
       </c>
@@ -9597,7 +9670,7 @@
         <v>PrimaryBeneficiary2_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -9605,7 +9678,7 @@
         <v>PrimaryBeneficiary2_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -9613,7 +9686,7 @@
         <v>PrimaryBeneficiary2_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -9621,7 +9694,7 @@
         <v>ContingentBeneficiary1_Natural</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>178</v>
       </c>
@@ -9629,7 +9702,7 @@
         <v>ContingentBeneficiary1_Relationship</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>179</v>
       </c>
@@ -9637,7 +9710,7 @@
         <v>ContingentBeneficiary1_Percentage</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>180</v>
       </c>
@@ -9645,7 +9718,7 @@
         <v>ContingentBeneficiary1_FirstName</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>181</v>
       </c>
@@ -9653,7 +9726,7 @@
         <v>ContingentBeneficiary1_MiddleName</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>182</v>
       </c>
@@ -9661,7 +9734,7 @@
         <v>ContingentBeneficiary1_LastName</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>183</v>
       </c>
@@ -9669,7 +9742,7 @@
         <v>ContingentBeneficiary1_DOB</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -9677,7 +9750,7 @@
         <v>ContingentBeneficiary1_SSN</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>185</v>
       </c>
@@ -9685,7 +9758,7 @@
         <v>ContingentBeneficiary1_Gender</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>186</v>
       </c>
@@ -9693,7 +9766,7 @@
         <v>ContingentBeneficiary1_Address_Lookup</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -9701,7 +9774,7 @@
         <v>ContingentBeneficiary1_MailingAddress1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>188</v>
       </c>
@@ -9709,7 +9782,7 @@
         <v>ContingentBeneficiary1_MailingAddress_City</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>189</v>
       </c>
@@ -9717,7 +9790,7 @@
         <v>ContingentBeneficiary1_MailingAddress_State</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>190</v>
       </c>
@@ -9725,7 +9798,7 @@
         <v>ContingentBeneficiary1_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>191</v>
       </c>
@@ -9733,7 +9806,7 @@
         <v>ContingentBeneficiary1_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -9741,7 +9814,7 @@
         <v>ContingentBeneficiary1_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -9749,7 +9822,7 @@
         <v>FinInfo_Assets_BankAccounts_Checking</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>204</v>
       </c>
@@ -9757,7 +9830,7 @@
         <v>FinInfo_Assets_BankAccounts_Saving</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>205</v>
       </c>
@@ -9765,7 +9838,7 @@
         <v>FinInfo_Assets_CDs</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>206</v>
       </c>
@@ -9773,7 +9846,7 @@
         <v>FinInfo_LiquidAssets_Annuities_SurrCharges</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>207</v>
       </c>
@@ -9781,7 +9854,7 @@
         <v>FinInfo_Assets_Annuities_FreeWithdrawals</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>208</v>
       </c>
@@ -9789,7 +9862,7 @@
         <v>FinInfo_Income_Investments</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>209</v>
       </c>
@@ -9797,7 +9870,7 @@
         <v>FinInfo_LiquidAssets_Other</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>210</v>
       </c>
@@ -9805,7 +9878,7 @@
         <v>FinInfo_LiquidAssets_Total</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>211</v>
       </c>
@@ -9813,7 +9886,7 @@
         <v>FinInfo_Expenses_Total_Monthly</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>212</v>
       </c>
@@ -9821,7 +9894,7 @@
         <v>FinInfo_NonLiquidAssets_Annuities_SurrPeriod</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>213</v>
       </c>
@@ -9829,7 +9902,7 @@
         <v>FinInfo_Income_RetirementAccounts</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>214</v>
       </c>
@@ -9837,7 +9910,7 @@
         <v>FinInfo_NonLiquidAssets_Investments</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>215</v>
       </c>
@@ -9845,7 +9918,7 @@
         <v>FinInfo_NonLiquidAssets_RealEstate</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>216</v>
       </c>
@@ -9853,7 +9926,7 @@
         <v>FinInfo_NonLiquidAssets_LifeInsurance</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>217</v>
       </c>
@@ -9861,7 +9934,7 @@
         <v>FinInfo_NonLiquidAssets_Other</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>218</v>
       </c>
@@ -9869,7 +9942,7 @@
         <v>FinInfo_NonLiquidAssets_Total</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>219</v>
       </c>
@@ -9877,7 +9950,7 @@
         <v>FinInfo_Assets_NetWorth</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>220</v>
       </c>
@@ -9885,7 +9958,7 @@
         <v>FinInfo_Expenses_HealthCare</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>221</v>
       </c>
@@ -9893,7 +9966,7 @@
         <v>FinInfo_Expenses_ExpectedChanges</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>222</v>
       </c>
@@ -9901,7 +9974,7 @@
         <v>FinInfo_Emergency</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>223</v>
       </c>
@@ -9909,7 +9982,7 @@
         <v>FinInfo_ReverseMortgage</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>224</v>
       </c>
@@ -9917,7 +9990,7 @@
         <v>FinInfo_Assets_ExpectedChanges</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>225</v>
       </c>
@@ -9925,7 +9998,7 @@
         <v>FinInfo_Assets_ExpectedChanges_Explain</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>228</v>
       </c>
@@ -9933,7 +10006,7 @@
         <v>Customer_AgeRange</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>230</v>
       </c>
@@ -9941,7 +10014,7 @@
         <v>Owner_TaxRate</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>231</v>
       </c>
@@ -9949,7 +10022,7 @@
         <v>FinObj_TimeHorizon</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>232</v>
       </c>
@@ -9957,7 +10030,7 @@
         <v>FinObj_InvestmentObjective</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>233</v>
       </c>
@@ -9965,7 +10038,7 @@
         <v>FinInfo_RiskTolerance</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>237</v>
       </c>
@@ -9973,7 +10046,7 @@
         <v>FinObj_InvestKnowledge</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>238</v>
       </c>
@@ -9981,7 +10054,7 @@
         <v>FinObj_Ranking</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>241</v>
       </c>
@@ -9989,7 +10062,7 @@
         <v>FinObj_Goal</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>245</v>
       </c>
@@ -9997,7 +10070,7 @@
         <v>Annuity_Rider_GuaranteedLifetimeWithdrawalBenefit_YesNo</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>247</v>
       </c>
@@ -10005,7 +10078,7 @@
         <v>Annuity_Rider_DeathBenefit_Type</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>251</v>
       </c>
@@ -10013,7 +10086,7 @@
         <v>SourceOfFunds_Count</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>252</v>
       </c>
@@ -10021,7 +10094,7 @@
         <v>Number_Transfers</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>253</v>
       </c>
@@ -10029,7 +10102,7 @@
         <v>SourceOfFunds1_Payment_Type</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>254</v>
       </c>
@@ -10037,7 +10110,7 @@
         <v>SourceOfFunds1_Payment_Method</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>255</v>
       </c>
@@ -10045,7 +10118,7 @@
         <v>SourceOfFunds1_Payment_Amount</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>256</v>
       </c>
@@ -10053,7 +10126,7 @@
         <v>Replacement_Company1_Policy_Number</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>257</v>
       </c>
@@ -10061,7 +10134,7 @@
         <v>Replacement_Company1_Name</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>261</v>
       </c>
@@ -10069,7 +10142,7 @@
         <v>SourceOfFunds2_Payment_Type</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>262</v>
       </c>
@@ -10077,7 +10150,7 @@
         <v>SourceOfFunds2_Payment_Method</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>263</v>
       </c>
@@ -10085,7 +10158,7 @@
         <v>SourceOfFunds2_Payment_Amount</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>264</v>
       </c>
@@ -10093,7 +10166,7 @@
         <v>Replacement_Company2_Policy_Number</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>265</v>
       </c>
@@ -10101,7 +10174,7 @@
         <v>Replacement_Company2_Name</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>268</v>
       </c>
@@ -10109,7 +10182,7 @@
         <v>SourceOfFunds3_Payment_Type</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>269</v>
       </c>
@@ -10117,7 +10190,7 @@
         <v>SourceOfFunds3_Payment_Method</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>270</v>
       </c>
@@ -10125,7 +10198,7 @@
         <v>SourceOfFunds3_Payment_Amount</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>273</v>
       </c>
@@ -10133,7 +10206,7 @@
         <v>SourceOfFunds_Payment_Total</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>274</v>
       </c>
@@ -10141,7 +10214,7 @@
         <v>Owner_ExistingPolicies</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>275</v>
       </c>
@@ -10149,7 +10222,7 @@
         <v>Owner_ChangePolicies</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>256</v>
       </c>
@@ -10157,7 +10230,7 @@
         <v>Replacement_Company1_ProductType</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>257</v>
       </c>
@@ -10165,7 +10238,7 @@
         <v>Replacement_Company1_PlanType</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>276</v>
       </c>
@@ -10173,7 +10246,7 @@
         <v>Replacement_Company1_DateEstablished</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>277</v>
       </c>
@@ -10181,7 +10254,7 @@
         <v>Replacement_Company1_Method</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>278</v>
       </c>
@@ -10189,7 +10262,7 @@
         <v>Replacement_Company1_Backup_WithHolding</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>279</v>
       </c>
@@ -10197,7 +10270,7 @@
         <v>Replacement_Company1_TransferAmount_Type</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>283</v>
       </c>
@@ -10205,7 +10278,7 @@
         <v>Replacement_Company1_TransferDate_Type</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>284</v>
       </c>
@@ -10213,7 +10286,7 @@
         <v>Replacement_Company1_MailingAddress1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>255</v>
       </c>
@@ -10221,7 +10294,7 @@
         <v>Replacement_Company1_MailingAddress_City</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>287</v>
       </c>
@@ -10229,7 +10302,7 @@
         <v>Replacement_Company1_MailingAddress_State</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>289</v>
       </c>
@@ -10237,7 +10310,7 @@
         <v>Replacement_Company1_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>290</v>
       </c>
@@ -10245,7 +10318,7 @@
         <v>Replacement_Company1_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>291</v>
       </c>
@@ -10253,7 +10326,7 @@
         <v>Replacement_Company1_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>292</v>
       </c>
@@ -10261,7 +10334,7 @@
         <v>Replacement_Company2_ProductType</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>293</v>
       </c>
@@ -10269,7 +10342,7 @@
         <v>Replacement_Company2_PlanType</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>294</v>
       </c>
@@ -10277,7 +10350,7 @@
         <v>Replacement_Company2_DateEstablished</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>264</v>
       </c>
@@ -10285,7 +10358,7 @@
         <v>Replacement_Company2_Method</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>265</v>
       </c>
@@ -10293,7 +10366,7 @@
         <v>Replacement_Company2_Backup_WithHolding</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>298</v>
       </c>
@@ -10301,7 +10374,7 @@
         <v>Replacement_Company2_TransferAmount_Type</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>299</v>
       </c>
@@ -10309,7 +10382,7 @@
         <v>Replacement_Company2_TransferDate_Type</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>300</v>
       </c>
@@ -10317,7 +10390,7 @@
         <v>Replacement_Company2_TransferDate</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>301</v>
       </c>
@@ -10325,7 +10398,7 @@
         <v>Replacement_Company2_MailingAddress1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>302</v>
       </c>
@@ -10333,7 +10406,7 @@
         <v>Replacement_Company2_MailingAddress_City</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>304</v>
       </c>
@@ -10341,7 +10414,7 @@
         <v>Replacement_Company2_MailingAddress_State</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>263</v>
       </c>
@@ -10349,7 +10422,7 @@
         <v>Replacement_Company2_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>308</v>
       </c>
@@ -10357,7 +10430,7 @@
         <v>Replacement_Company2_Primary_PhoneNumber</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>309</v>
       </c>
@@ -10365,7 +10438,7 @@
         <v>Replacement_Company2_Primary_EmailAddress</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>310</v>
       </c>
@@ -10373,7 +10446,7 @@
         <v>Replacement_Company2_ExistingPolicies_Discontinue</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>311</v>
       </c>
@@ -10381,7 +10454,7 @@
         <v>Replacement_Company2_UseExistingFunds</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>312</v>
       </c>
@@ -10389,7 +10462,7 @@
         <v>Replacement_Company2_AcceptableReplacement</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>313</v>
       </c>
@@ -10397,7 +10470,7 @@
         <v>Replacement_Company2_ReplacedFinanced</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>314</v>
       </c>
@@ -10405,7 +10478,7 @@
         <v>Replacement_Company2_Replacement_Details</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>315</v>
       </c>
@@ -10413,7 +10486,7 @@
         <v>Replacement_Company2_ReadAloudElection</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>319</v>
       </c>
@@ -10421,7 +10494,7 @@
         <v>AccountHolder3_FinancialInstitution_Name</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>320</v>
       </c>
@@ -10429,7 +10502,7 @@
         <v>AccountHolder3_FirstName</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>321</v>
       </c>
@@ -10437,7 +10510,7 @@
         <v>AccountHolder3_MiddleName</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>323</v>
       </c>
@@ -10445,7 +10518,7 @@
         <v>AccountHolder3_LastName</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>324</v>
       </c>
@@ -10453,7 +10526,7 @@
         <v>AccountHolder3_RoutingNumber</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>325</v>
       </c>
@@ -10461,7 +10534,7 @@
         <v>AccountHolder3_AccountNumber</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>328</v>
       </c>
@@ -10469,7 +10542,7 @@
         <v>AccountHolder3_Account_Type</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>330</v>
       </c>
@@ -10477,7 +10550,7 @@
         <v>AccountHolder3_FinancialInstitution_MailingAddress1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>329</v>
       </c>
@@ -10485,7 +10558,7 @@
         <v>AccountHolder3_FinancialInstitution_MailingAddress_City</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>331</v>
       </c>
@@ -10493,7 +10566,7 @@
         <v>AccountHolder3_FinancialInstitution_MailingAddress_State</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>332</v>
       </c>
@@ -10501,37 +10574,37 @@
         <v>AccountHolder3_FinancialInstitution_MailingAddress_Zipcode</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>401</v>
       </c>
@@ -10540,7 +10613,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>402</v>
       </c>
@@ -10548,18 +10621,18 @@
         <v>205</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B225" s="8">
         <f>B224/B223</f>
         <v>1.4236111111111112</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>405</v>
       </c>
@@ -10570,7 +10643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>403</v>
       </c>
@@ -10578,7 +10651,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>406</v>
       </c>
@@ -10589,7 +10662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>405</v>
       </c>
@@ -10600,32 +10673,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>409</v>
       </c>

--- a/src/test/resources/testdata/Client/E2EFlow.xlsx
+++ b/src/test/resources/testdata/Client/E2EFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77B832-DCE7-45C0-BA30-733ABBDCEB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC33546E-9E3D-476E-A6E6-FDF805606DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176C0CDE-58DE-4F80-B9A9-A69CF69E117C}"/>
   </bookViews>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C238A-A12B-4AFE-B037-B65E78A076E7}">
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/Client/E2EFlow.xlsx
+++ b/src/test/resources/testdata/Client/E2EFlow.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC33546E-9E3D-476E-A6E6-FDF805606DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E00E59-DE0A-4FE0-AC63-65F8DE89EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176C0CDE-58DE-4F80-B9A9-A69CF69E117C}"/>
   </bookViews>
   <sheets>
-    <sheet name="VA" sheetId="5" r:id="rId1"/>
+    <sheet name="Product-VA" sheetId="5" r:id="rId1"/>
     <sheet name="VA(1)" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VA!$A$1:$F$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product-VA'!$A$1:$F$242</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C238A-A12B-4AFE-B037-B65E78A076E7}">
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/Client/E2EFlow.xlsx
+++ b/src/test/resources/testdata/Client/E2EFlow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C8B76E-5C85-4815-94AC-7294040D8FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E4FCB4-591E-45CB-AD83-92F05538D0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{176C0CDE-58DE-4F80-B9A9-A69CF69E117C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Scenario1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scenario1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Scenario1!$B$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="484">
   <si>
     <t>TC ID/Role Code</t>
   </si>
@@ -2687,6 +2687,9 @@
     <t>product</t>
   </si>
   <si>
+    <t>Order</t>
+  </si>
+  <si>
     <t>5/9/1980</t>
   </si>
   <si>
@@ -2766,6 +2769,12 @@
   </si>
   <si>
     <t xml:space="preserve">Inherited Non-Qualified </t>
+  </si>
+  <si>
+    <t>04/04/1999</t>
+  </si>
+  <si>
+    <t>10,000</t>
   </si>
 </sst>
 </file>
@@ -4135,3601 +4144,4231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CEE340-2A60-4879-972B-51611FC79445}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>127</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
       </c>
       <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>127</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>453</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>189</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>129</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>130</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>319</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" t="s">
+        <v>448</v>
+      </c>
+      <c r="E77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" t="s">
+        <v>134</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" t="s">
+        <v>273</v>
+      </c>
+      <c r="E87" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" t="s">
+        <v>275</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>176</v>
+      </c>
+      <c r="E98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" t="s">
+        <v>134</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" t="s">
+        <v>134</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" t="s">
+        <v>134</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" t="s">
+        <v>183</v>
+      </c>
+      <c r="E105" t="s">
+        <v>129</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" t="s">
+        <v>134</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" t="s">
+        <v>324</v>
+      </c>
+      <c r="E108" t="s">
+        <v>134</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E109" t="s">
+        <v>134</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" t="s">
+        <v>290</v>
+      </c>
+      <c r="E110" t="s">
+        <v>129</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" t="s">
+        <v>291</v>
+      </c>
+      <c r="E111" t="s">
+        <v>129</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" t="s">
+        <v>293</v>
+      </c>
+      <c r="E112" t="s">
+        <v>134</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>143</v>
+      </c>
+      <c r="D113" t="s">
+        <v>294</v>
+      </c>
+      <c r="E113" t="s">
+        <v>134</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" t="s">
+        <v>295</v>
+      </c>
+      <c r="E114" t="s">
+        <v>134</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" t="s">
+        <v>300</v>
+      </c>
+      <c r="E116" t="s">
+        <v>134</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" t="s">
+        <v>301</v>
+      </c>
+      <c r="E117" t="s">
+        <v>134</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" t="s">
+        <v>303</v>
+      </c>
+      <c r="E118" t="s">
+        <v>129</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" t="s">
+        <v>304</v>
+      </c>
+      <c r="E119" t="s">
+        <v>134</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" t="s">
+        <v>306</v>
+      </c>
+      <c r="E120" t="s">
+        <v>134</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" t="s">
+        <v>307</v>
+      </c>
+      <c r="E121" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" t="s">
+        <v>309</v>
+      </c>
+      <c r="E122" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>232</v>
+      </c>
+      <c r="C123" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" t="s">
+        <v>134</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" t="s">
+        <v>312</v>
+      </c>
+      <c r="E124" t="s">
+        <v>134</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" t="s">
+        <v>143</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E125" t="s">
+        <v>134</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" t="s">
+        <v>143</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E126" t="s">
+        <v>134</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E127" t="s">
+        <v>190</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>478</v>
+      </c>
+      <c r="C128" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" t="s">
+        <v>315</v>
+      </c>
+      <c r="E128" t="s">
+        <v>316</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>478</v>
+      </c>
+      <c r="C129" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" t="s">
+        <v>317</v>
+      </c>
+      <c r="E129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>478</v>
+      </c>
+      <c r="C130" t="s">
+        <v>314</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E130" t="s">
+        <v>316</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>478</v>
+      </c>
+      <c r="C131" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+      <c r="F131" s="18">
+        <v>610338611400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>478</v>
+      </c>
+      <c r="C132" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E132" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" s="28" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>478</v>
+      </c>
+      <c r="C133" t="s">
+        <v>314</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E133" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>478</v>
+      </c>
+      <c r="C134" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E134" t="s">
+        <v>134</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>478</v>
+      </c>
+      <c r="C135" t="s">
+        <v>314</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E135" t="s">
+        <v>316</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>478</v>
+      </c>
+      <c r="C136" t="s">
+        <v>314</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E136" t="s">
+        <v>190</v>
+      </c>
+      <c r="F136" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" t="s">
+        <v>134</v>
+      </c>
+      <c r="F137" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>340</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+      <c r="F138" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>340</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E139" t="s">
+        <v>134</v>
+      </c>
+      <c r="F139" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" t="s">
+        <v>134</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>340</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E141" t="s">
+        <v>134</v>
+      </c>
+      <c r="F141" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>340</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E142" t="s">
+        <v>129</v>
+      </c>
+      <c r="F142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>340</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E143" t="s">
+        <v>129</v>
+      </c>
+      <c r="F143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>340</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E144" t="s">
+        <v>134</v>
+      </c>
+      <c r="F144" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>340</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E145" t="s">
+        <v>134</v>
+      </c>
+      <c r="F145" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>340</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E146" t="s">
+        <v>134</v>
+      </c>
+      <c r="F146" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>340</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E147" t="s">
+        <v>134</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>361</v>
+      </c>
+      <c r="C148" t="s">
+        <v>360</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E148" t="s">
+        <v>129</v>
+      </c>
+      <c r="F148" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>361</v>
+      </c>
+      <c r="C149" t="s">
+        <v>360</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="E149" t="s">
+        <v>129</v>
+      </c>
+      <c r="F149" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>361</v>
+      </c>
+      <c r="C150" t="s">
+        <v>360</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E150" t="s">
+        <v>134</v>
+      </c>
+      <c r="F150">
+        <v>1000555</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" t="s">
+        <v>360</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E151" t="s">
+        <v>134</v>
+      </c>
+      <c r="F151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" t="s">
+        <v>360</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="E152" t="s">
+        <v>134</v>
+      </c>
+      <c r="F152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>361</v>
+      </c>
+      <c r="C153" t="s">
+        <v>360</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E153" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>361</v>
+      </c>
+      <c r="C154" t="s">
+        <v>360</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E154" t="s">
+        <v>134</v>
+      </c>
+      <c r="F154" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>361</v>
+      </c>
+      <c r="C155" t="s">
+        <v>360</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E155" t="s">
+        <v>134</v>
+      </c>
+      <c r="F155" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>361</v>
+      </c>
+      <c r="C156" t="s">
+        <v>360</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="E156" t="s">
+        <v>134</v>
+      </c>
+      <c r="F156" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>361</v>
+      </c>
+      <c r="C157" t="s">
+        <v>360</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E157" t="s">
+        <v>134</v>
+      </c>
+      <c r="F157" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>361</v>
+      </c>
+      <c r="C158" t="s">
+        <v>360</v>
+      </c>
+      <c r="D158" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E158" t="s">
+        <v>134</v>
+      </c>
+      <c r="F158">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" t="s">
+        <v>360</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="E159" t="s">
+        <v>134</v>
+      </c>
+      <c r="F159">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>361</v>
+      </c>
+      <c r="C160" t="s">
+        <v>360</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E160" t="s">
+        <v>134</v>
+      </c>
+      <c r="F160" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>361</v>
+      </c>
+      <c r="C161" t="s">
+        <v>360</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E161" t="s">
+        <v>134</v>
+      </c>
+      <c r="F161" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>361</v>
+      </c>
+      <c r="C162" t="s">
+        <v>360</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="E162" t="s">
+        <v>134</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>361</v>
+      </c>
+      <c r="C163" t="s">
+        <v>360</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E163" t="s">
+        <v>129</v>
+      </c>
+      <c r="F163" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>361</v>
+      </c>
+      <c r="C164" t="s">
+        <v>360</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E164" t="s">
+        <v>190</v>
+      </c>
+      <c r="F164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" t="s">
+        <v>360</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E165" t="s">
+        <v>134</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>361</v>
+      </c>
+      <c r="C166" t="s">
+        <v>360</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>361</v>
+      </c>
+      <c r="C167" t="s">
+        <v>360</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="E167" t="s">
+        <v>316</v>
+      </c>
+      <c r="F167" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>361</v>
+      </c>
+      <c r="C168" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="E168" t="s">
+        <v>190</v>
+      </c>
+      <c r="F168" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>361</v>
+      </c>
+      <c r="C169" t="s">
+        <v>360</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="E169" t="s">
+        <v>190</v>
+      </c>
+      <c r="F169" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>361</v>
+      </c>
+      <c r="C170" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="E170" t="s">
+        <v>190</v>
+      </c>
+      <c r="F170" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>361</v>
+      </c>
+      <c r="C171" t="s">
+        <v>360</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E171" t="s">
+        <v>134</v>
+      </c>
+      <c r="F171" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" t="s">
+        <v>360</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E172" t="s">
+        <v>129</v>
+      </c>
+      <c r="F172" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" t="s">
+        <v>360</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E173" t="s">
+        <v>134</v>
+      </c>
+      <c r="F173" s="21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174" t="s">
+        <v>360</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E174" t="s">
+        <v>134</v>
+      </c>
+      <c r="F174" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>361</v>
+      </c>
+      <c r="C175" t="s">
+        <v>360</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E175" t="s">
+        <v>134</v>
+      </c>
+      <c r="F175" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" t="s">
+        <v>360</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E176" t="s">
+        <v>190</v>
+      </c>
+      <c r="F176" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" t="s">
+        <v>360</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E177" t="s">
+        <v>134</v>
+      </c>
+      <c r="F177">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>361</v>
+      </c>
+      <c r="C178" t="s">
+        <v>360</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E178" t="s">
+        <v>134</v>
+      </c>
+      <c r="F178" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="E179" t="s">
+        <v>134</v>
+      </c>
+      <c r="F179">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" t="s">
+        <v>360</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E180" t="s">
+        <v>190</v>
+      </c>
+      <c r="F180" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" t="s">
+        <v>360</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="E181" t="s">
+        <v>134</v>
+      </c>
+      <c r="F181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E182" t="s">
+        <v>134</v>
+      </c>
+      <c r="F182" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>361</v>
+      </c>
+      <c r="C183" t="s">
+        <v>360</v>
+      </c>
+      <c r="D183" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E183" t="s">
+        <v>134</v>
+      </c>
+      <c r="F183" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>407</v>
+      </c>
+      <c r="C184" t="s">
+        <v>408</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E184" t="s">
+        <v>316</v>
+      </c>
+      <c r="F184" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>407</v>
+      </c>
+      <c r="C185" t="s">
+        <v>408</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="E185" t="s">
+        <v>316</v>
+      </c>
+      <c r="F185" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>411</v>
+      </c>
+      <c r="C186" t="s">
+        <v>412</v>
+      </c>
+      <c r="D186" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E186" t="s">
+        <v>316</v>
+      </c>
+      <c r="F186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>411</v>
+      </c>
+      <c r="C187" t="s">
+        <v>414</v>
+      </c>
+      <c r="D187" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+      <c r="F187" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188" t="s">
+        <v>414</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="E188" t="s">
+        <v>129</v>
+      </c>
+      <c r="F188" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B189" t="s">
+        <v>411</v>
+      </c>
+      <c r="C189" t="s">
+        <v>414</v>
+      </c>
+      <c r="D189" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E189" t="s">
+        <v>134</v>
+      </c>
+      <c r="F189" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B190" t="s">
+        <v>411</v>
+      </c>
+      <c r="C190" t="s">
+        <v>414</v>
+      </c>
+      <c r="D190" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="E190" t="s">
+        <v>134</v>
+      </c>
+      <c r="F190" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B191" t="s">
+        <v>411</v>
+      </c>
+      <c r="C191" t="s">
+        <v>414</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E191" t="s">
+        <v>190</v>
+      </c>
+      <c r="F191" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="D8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B192" t="s">
+        <v>411</v>
+      </c>
+      <c r="C192" t="s">
+        <v>414</v>
+      </c>
+      <c r="D192" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="E192" t="s">
+        <v>129</v>
+      </c>
+      <c r="F192" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B193" t="s">
+        <v>411</v>
+      </c>
+      <c r="C193" t="s">
+        <v>414</v>
+      </c>
+      <c r="D193" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E193" t="s">
+        <v>134</v>
+      </c>
+      <c r="F193" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="B194" t="s">
+        <v>411</v>
+      </c>
+      <c r="C194" t="s">
+        <v>414</v>
+      </c>
+      <c r="D194" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="E194" t="s">
+        <v>134</v>
+      </c>
+      <c r="F194" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>411</v>
+      </c>
+      <c r="C195" t="s">
+        <v>414</v>
+      </c>
+      <c r="D195" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="E195" t="s">
+        <v>134</v>
+      </c>
+      <c r="F195" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>411</v>
+      </c>
+      <c r="C196" t="s">
+        <v>414</v>
+      </c>
+      <c r="D196" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="E196" t="s">
+        <v>134</v>
+      </c>
+      <c r="F196" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>411</v>
+      </c>
+      <c r="C197" t="s">
+        <v>414</v>
+      </c>
+      <c r="D197" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F197">
+        <v>898456456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>411</v>
+      </c>
+      <c r="C198" t="s">
+        <v>414</v>
+      </c>
+      <c r="D198" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="F198" s="18">
+        <v>610334511400</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>411</v>
+      </c>
+      <c r="C199" t="s">
+        <v>414</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E199" t="s">
         <v>129</v>
       </c>
-      <c r="E14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F199" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>411</v>
+      </c>
+      <c r="C200" t="s">
+        <v>414</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E200" t="s">
+        <v>134</v>
+      </c>
+      <c r="F200" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>432</v>
+      </c>
+      <c r="C201" t="s">
+        <v>433</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E201" t="s">
+        <v>134</v>
+      </c>
+      <c r="F201" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>432</v>
+      </c>
+      <c r="C202" t="s">
+        <v>433</v>
+      </c>
+      <c r="D202" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E202" t="s">
+        <v>134</v>
+      </c>
+      <c r="F202" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>432</v>
+      </c>
+      <c r="C203" t="s">
+        <v>433</v>
+      </c>
+      <c r="D203" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E203" t="s">
+        <v>134</v>
+      </c>
+      <c r="F203" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>432</v>
+      </c>
+      <c r="C204" t="s">
+        <v>433</v>
+      </c>
+      <c r="D204" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E204" t="s">
+        <v>134</v>
+      </c>
+      <c r="F204" s="18">
+        <v>25545555454</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>432</v>
+      </c>
+      <c r="C205" t="s">
+        <v>433</v>
+      </c>
+      <c r="D205" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E205" t="s">
+        <v>134</v>
+      </c>
+      <c r="F205">
+        <v>87987</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>432</v>
+      </c>
+      <c r="C206" t="s">
+        <v>440</v>
+      </c>
+      <c r="D206" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E206" t="s">
+        <v>134</v>
+      </c>
+      <c r="F206" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>432</v>
+      </c>
+      <c r="C207" t="s">
+        <v>440</v>
+      </c>
+      <c r="D207" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E207" t="s">
+        <v>134</v>
+      </c>
+      <c r="F207" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>432</v>
+      </c>
+      <c r="C208" t="s">
+        <v>440</v>
+      </c>
+      <c r="D208" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E208" t="s">
+        <v>134</v>
+      </c>
+      <c r="F208" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>432</v>
+      </c>
+      <c r="C209" t="s">
+        <v>440</v>
+      </c>
+      <c r="D209" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="E209" t="s">
         <v>129</v>
       </c>
-      <c r="E19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F209" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210">
         <v>209</v>
       </c>
-      <c r="C26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="1">
-        <v>36254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>232</v>
-      </c>
-      <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>232</v>
-      </c>
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>232</v>
-      </c>
-      <c r="B53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>232</v>
-      </c>
-      <c r="B55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>232</v>
-      </c>
-      <c r="B57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" t="s">
-        <v>319</v>
-      </c>
-      <c r="D60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>232</v>
-      </c>
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" t="s">
-        <v>245</v>
-      </c>
-      <c r="D63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>232</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>232</v>
-      </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>248</v>
-      </c>
-      <c r="D66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>232</v>
-      </c>
-      <c r="B67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" t="s">
-        <v>249</v>
-      </c>
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>232</v>
-      </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>232</v>
-      </c>
-      <c r="B69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" t="s">
-        <v>253</v>
-      </c>
-      <c r="D69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>232</v>
-      </c>
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>232</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>232</v>
-      </c>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>232</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>232</v>
-      </c>
-      <c r="B74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>232</v>
-      </c>
-      <c r="B75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>232</v>
-      </c>
-      <c r="B76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>232</v>
-      </c>
-      <c r="B77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" t="s">
-        <v>448</v>
-      </c>
-      <c r="D77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>232</v>
-      </c>
-      <c r="B78" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>232</v>
-      </c>
-      <c r="B79" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" t="s">
-        <v>263</v>
-      </c>
-      <c r="D79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>232</v>
-      </c>
-      <c r="B80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>232</v>
-      </c>
-      <c r="B81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" t="s">
-        <v>323</v>
-      </c>
-      <c r="D81" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>232</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" t="s">
-        <v>267</v>
-      </c>
-      <c r="D83" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>232</v>
-      </c>
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" t="s">
-        <v>268</v>
-      </c>
-      <c r="D84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" t="s">
-        <v>270</v>
-      </c>
-      <c r="D85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>232</v>
-      </c>
-      <c r="B86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" t="s">
-        <v>272</v>
-      </c>
-      <c r="D86" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B87" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>232</v>
-      </c>
-      <c r="B88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" t="s">
-        <v>277</v>
-      </c>
-      <c r="D89" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="B210" t="s">
+        <v>432</v>
+      </c>
+      <c r="C210" t="s">
+        <v>440</v>
+      </c>
+      <c r="D210" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E210" t="s">
+        <v>134</v>
+      </c>
+      <c r="F210" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>232</v>
-      </c>
-      <c r="B90" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" t="s">
-        <v>279</v>
-      </c>
-      <c r="D90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>232</v>
-      </c>
-      <c r="B91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D91" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>232</v>
-      </c>
-      <c r="B92" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D92" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>232</v>
-      </c>
-      <c r="B93" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" t="s">
-        <v>171</v>
-      </c>
-      <c r="D93" t="s">
-        <v>129</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" t="s">
-        <v>172</v>
-      </c>
-      <c r="D94" t="s">
-        <v>129</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>232</v>
-      </c>
-      <c r="B95" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B96" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" t="s">
-        <v>174</v>
-      </c>
-      <c r="D96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>232</v>
-      </c>
-      <c r="B97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" t="s">
-        <v>175</v>
-      </c>
-      <c r="D97" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>232</v>
-      </c>
-      <c r="B100" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100" t="s">
-        <v>178</v>
-      </c>
-      <c r="D100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>232</v>
-      </c>
-      <c r="B101" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" t="s">
-        <v>179</v>
-      </c>
-      <c r="D101" t="s">
-        <v>129</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" t="s">
-        <v>180</v>
-      </c>
-      <c r="D102" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" t="s">
-        <v>181</v>
-      </c>
-      <c r="D103" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>232</v>
-      </c>
-      <c r="B104" t="s">
-        <v>143</v>
-      </c>
-      <c r="C104" t="s">
-        <v>182</v>
-      </c>
-      <c r="D104" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>232</v>
-      </c>
-      <c r="B105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C105" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105" t="s">
-        <v>129</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>232</v>
-      </c>
-      <c r="B106" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" t="s">
-        <v>184</v>
-      </c>
-      <c r="D106" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>232</v>
-      </c>
-      <c r="B107" t="s">
-        <v>143</v>
-      </c>
-      <c r="C107" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>232</v>
-      </c>
-      <c r="B108" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>232</v>
-      </c>
-      <c r="B109" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D109" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>232</v>
-      </c>
-      <c r="B110" t="s">
-        <v>143</v>
-      </c>
-      <c r="C110" t="s">
-        <v>290</v>
-      </c>
-      <c r="D110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>232</v>
-      </c>
-      <c r="B111" t="s">
-        <v>143</v>
-      </c>
-      <c r="C111" t="s">
-        <v>291</v>
-      </c>
-      <c r="D111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>232</v>
-      </c>
-      <c r="B112" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" t="s">
-        <v>293</v>
-      </c>
-      <c r="D112" t="s">
-        <v>134</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>232</v>
-      </c>
-      <c r="B113" t="s">
-        <v>143</v>
-      </c>
-      <c r="C113" t="s">
-        <v>294</v>
-      </c>
-      <c r="D113" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>232</v>
-      </c>
-      <c r="B114" t="s">
-        <v>143</v>
-      </c>
-      <c r="C114" t="s">
-        <v>295</v>
-      </c>
-      <c r="D114" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>232</v>
-      </c>
-      <c r="B115" t="s">
-        <v>143</v>
-      </c>
-      <c r="C115" t="s">
-        <v>296</v>
-      </c>
-      <c r="D115" t="s">
-        <v>134</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>232</v>
-      </c>
-      <c r="B116" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" t="s">
-        <v>300</v>
-      </c>
-      <c r="D116" t="s">
-        <v>134</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" t="s">
-        <v>143</v>
-      </c>
-      <c r="C117" t="s">
-        <v>301</v>
-      </c>
-      <c r="D117" t="s">
-        <v>134</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" t="s">
-        <v>143</v>
-      </c>
-      <c r="C118" t="s">
-        <v>303</v>
-      </c>
-      <c r="D118" t="s">
-        <v>129</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>232</v>
-      </c>
-      <c r="B119" t="s">
-        <v>143</v>
-      </c>
-      <c r="C119" t="s">
-        <v>304</v>
-      </c>
-      <c r="D119" t="s">
-        <v>134</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>232</v>
-      </c>
-      <c r="B120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C120" t="s">
-        <v>306</v>
-      </c>
-      <c r="D120" t="s">
-        <v>134</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>232</v>
-      </c>
-      <c r="B121" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" t="s">
-        <v>307</v>
-      </c>
-      <c r="D121" t="s">
-        <v>134</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>232</v>
-      </c>
-      <c r="B122" t="s">
-        <v>143</v>
-      </c>
-      <c r="C122" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" t="s">
-        <v>129</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>232</v>
-      </c>
-      <c r="B123" t="s">
-        <v>143</v>
-      </c>
-      <c r="C123" t="s">
-        <v>310</v>
-      </c>
-      <c r="D123" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>232</v>
-      </c>
-      <c r="B124" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" t="s">
-        <v>312</v>
-      </c>
-      <c r="D124" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>232</v>
-      </c>
-      <c r="B125" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D125" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>232</v>
-      </c>
-      <c r="B126" t="s">
-        <v>143</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="D126" t="s">
-        <v>134</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>232</v>
-      </c>
-      <c r="B127" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D127" t="s">
-        <v>190</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>477</v>
-      </c>
-      <c r="B128" t="s">
-        <v>314</v>
-      </c>
-      <c r="C128" t="s">
-        <v>315</v>
-      </c>
-      <c r="D128" t="s">
-        <v>316</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>477</v>
-      </c>
-      <c r="B129" t="s">
-        <v>314</v>
-      </c>
-      <c r="C129" t="s">
-        <v>317</v>
-      </c>
-      <c r="D129" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>477</v>
-      </c>
-      <c r="B130" t="s">
-        <v>314</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="D130" t="s">
-        <v>316</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>477</v>
-      </c>
-      <c r="B131" t="s">
-        <v>314</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D131" t="s">
-        <v>134</v>
-      </c>
-      <c r="E131" s="18">
-        <v>610338611400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>477</v>
-      </c>
-      <c r="B132" t="s">
-        <v>314</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="D132" t="s">
-        <v>134</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>477</v>
-      </c>
-      <c r="B133" t="s">
-        <v>314</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D133" t="s">
-        <v>316</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>477</v>
-      </c>
-      <c r="B134" t="s">
-        <v>314</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="D134" t="s">
-        <v>134</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>477</v>
-      </c>
-      <c r="B135" t="s">
-        <v>314</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D135" t="s">
-        <v>316</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>477</v>
-      </c>
-      <c r="B136" t="s">
-        <v>314</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D136" t="s">
-        <v>190</v>
-      </c>
-      <c r="E136" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>340</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D137" t="s">
-        <v>134</v>
-      </c>
-      <c r="E137" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>340</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D138" t="s">
-        <v>134</v>
-      </c>
-      <c r="E138" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>340</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="D139" t="s">
-        <v>134</v>
-      </c>
-      <c r="E139" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>340</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D140" t="s">
-        <v>134</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>340</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="D141" t="s">
-        <v>134</v>
-      </c>
-      <c r="E141" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>340</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D142" t="s">
-        <v>129</v>
-      </c>
-      <c r="E142" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>340</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="D143" t="s">
-        <v>129</v>
-      </c>
-      <c r="E143" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>340</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="D144" t="s">
-        <v>134</v>
-      </c>
-      <c r="E144" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>340</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D145" t="s">
-        <v>134</v>
-      </c>
-      <c r="E145" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>340</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="D146" t="s">
-        <v>134</v>
-      </c>
-      <c r="E146" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>340</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D147" t="s">
-        <v>134</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>361</v>
-      </c>
-      <c r="B148" t="s">
-        <v>360</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="D148" t="s">
-        <v>129</v>
-      </c>
-      <c r="E148" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>361</v>
-      </c>
-      <c r="B149" t="s">
-        <v>360</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D149" t="s">
-        <v>129</v>
-      </c>
-      <c r="E149" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>361</v>
-      </c>
-      <c r="B150" t="s">
-        <v>360</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="D150" t="s">
-        <v>134</v>
-      </c>
-      <c r="E150">
-        <v>1000555</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>361</v>
-      </c>
-      <c r="B151" t="s">
-        <v>360</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="D151" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>361</v>
-      </c>
-      <c r="B152" t="s">
-        <v>360</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D152" t="s">
-        <v>134</v>
-      </c>
-      <c r="E152" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>361</v>
-      </c>
-      <c r="B153" t="s">
-        <v>360</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="D153" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>361</v>
-      </c>
-      <c r="B154" t="s">
-        <v>360</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="D154" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>361</v>
-      </c>
-      <c r="B155" t="s">
-        <v>360</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="D155" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>361</v>
-      </c>
-      <c r="B156" t="s">
-        <v>360</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="D156" t="s">
-        <v>134</v>
-      </c>
-      <c r="E156" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>361</v>
-      </c>
-      <c r="B157" t="s">
-        <v>360</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="D157" t="s">
-        <v>134</v>
-      </c>
-      <c r="E157" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>361</v>
-      </c>
-      <c r="B158" t="s">
-        <v>360</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="D158" t="s">
-        <v>134</v>
-      </c>
-      <c r="E158">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>361</v>
-      </c>
-      <c r="B159" t="s">
-        <v>360</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D159" t="s">
-        <v>134</v>
-      </c>
-      <c r="E159">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>361</v>
-      </c>
-      <c r="B160" t="s">
-        <v>360</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="D160" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>361</v>
-      </c>
-      <c r="B161" t="s">
-        <v>360</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="D161" t="s">
-        <v>134</v>
-      </c>
-      <c r="E161" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>361</v>
-      </c>
-      <c r="B162" t="s">
-        <v>360</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="D162" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" s="25" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>361</v>
-      </c>
-      <c r="B163" t="s">
-        <v>360</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="D163" t="s">
-        <v>129</v>
-      </c>
-      <c r="E163" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>361</v>
-      </c>
-      <c r="B164" t="s">
-        <v>360</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="D164" t="s">
-        <v>190</v>
-      </c>
-      <c r="E164" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>361</v>
-      </c>
-      <c r="B165" t="s">
-        <v>360</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="D165" t="s">
-        <v>134</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>361</v>
-      </c>
-      <c r="B166" t="s">
-        <v>360</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="D166" t="s">
-        <v>316</v>
-      </c>
-      <c r="E166" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>361</v>
-      </c>
-      <c r="B167" t="s">
-        <v>360</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D167" t="s">
-        <v>316</v>
-      </c>
-      <c r="E167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>361</v>
-      </c>
-      <c r="B168" t="s">
-        <v>360</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="D168" t="s">
-        <v>190</v>
-      </c>
-      <c r="E168" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>361</v>
-      </c>
-      <c r="B169" t="s">
-        <v>360</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="D169" t="s">
-        <v>190</v>
-      </c>
-      <c r="E169" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>361</v>
-      </c>
-      <c r="B170" t="s">
-        <v>360</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="D170" t="s">
-        <v>190</v>
-      </c>
-      <c r="E170" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>361</v>
-      </c>
-      <c r="B171" t="s">
-        <v>360</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D171" t="s">
-        <v>134</v>
-      </c>
-      <c r="E171" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>361</v>
-      </c>
-      <c r="B172" t="s">
-        <v>360</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D172" t="s">
-        <v>129</v>
-      </c>
-      <c r="E172" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>361</v>
-      </c>
-      <c r="B173" t="s">
-        <v>360</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D173" t="s">
-        <v>134</v>
-      </c>
-      <c r="E173" s="21">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>361</v>
-      </c>
-      <c r="B174" t="s">
-        <v>360</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="D174" t="s">
-        <v>134</v>
-      </c>
-      <c r="E174" s="22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>361</v>
-      </c>
-      <c r="B175" t="s">
-        <v>360</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D175" t="s">
-        <v>134</v>
-      </c>
-      <c r="E175" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>361</v>
-      </c>
-      <c r="B176" t="s">
-        <v>360</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="D176" t="s">
-        <v>190</v>
-      </c>
-      <c r="E176" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>361</v>
-      </c>
-      <c r="B177" t="s">
-        <v>360</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D177" t="s">
-        <v>134</v>
-      </c>
-      <c r="E177">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>361</v>
-      </c>
-      <c r="B178" t="s">
-        <v>360</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="D178" t="s">
-        <v>134</v>
-      </c>
-      <c r="E178" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>361</v>
-      </c>
-      <c r="B179" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D179" t="s">
-        <v>134</v>
-      </c>
-      <c r="E179">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>361</v>
-      </c>
-      <c r="B180" t="s">
-        <v>360</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D180" t="s">
-        <v>190</v>
-      </c>
-      <c r="E180" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>361</v>
-      </c>
-      <c r="B181" t="s">
-        <v>360</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D181" t="s">
-        <v>134</v>
-      </c>
-      <c r="E181" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>361</v>
-      </c>
-      <c r="B182" t="s">
-        <v>360</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="D182" t="s">
-        <v>134</v>
-      </c>
-      <c r="E182" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>361</v>
-      </c>
-      <c r="B183" t="s">
-        <v>360</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D183" t="s">
-        <v>134</v>
-      </c>
-      <c r="E183" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>407</v>
-      </c>
-      <c r="B184" t="s">
-        <v>408</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D184" t="s">
-        <v>316</v>
-      </c>
-      <c r="E184" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>407</v>
-      </c>
-      <c r="B185" t="s">
-        <v>408</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="D185" t="s">
-        <v>316</v>
-      </c>
-      <c r="E185" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>411</v>
-      </c>
-      <c r="B186" t="s">
-        <v>412</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="D186" t="s">
-        <v>316</v>
-      </c>
-      <c r="E186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>411</v>
-      </c>
-      <c r="B187" t="s">
-        <v>414</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D187" t="s">
-        <v>190</v>
-      </c>
-      <c r="E187" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>411</v>
-      </c>
-      <c r="B188" t="s">
-        <v>414</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D188" t="s">
-        <v>129</v>
-      </c>
-      <c r="E188" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>411</v>
-      </c>
-      <c r="B189" t="s">
-        <v>414</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D189" t="s">
-        <v>134</v>
-      </c>
-      <c r="E189" s="25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>411</v>
-      </c>
-      <c r="B190" t="s">
-        <v>414</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="D190" t="s">
-        <v>134</v>
-      </c>
-      <c r="E190" s="25" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>411</v>
-      </c>
-      <c r="B191" t="s">
-        <v>414</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="D191" t="s">
-        <v>190</v>
-      </c>
-      <c r="E191" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>411</v>
-      </c>
-      <c r="B192" t="s">
-        <v>414</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="D192" t="s">
-        <v>129</v>
-      </c>
-      <c r="E192" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>411</v>
-      </c>
-      <c r="B193" t="s">
-        <v>414</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D193" t="s">
-        <v>134</v>
-      </c>
-      <c r="E193" s="25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>411</v>
-      </c>
-      <c r="B194" t="s">
-        <v>414</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="D194" t="s">
-        <v>134</v>
-      </c>
-      <c r="E194" s="25" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>411</v>
-      </c>
-      <c r="B195" t="s">
-        <v>414</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D195" t="s">
-        <v>134</v>
-      </c>
-      <c r="E195" s="25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>411</v>
-      </c>
-      <c r="B196" t="s">
-        <v>414</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D196" t="s">
-        <v>134</v>
-      </c>
-      <c r="E196" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>411</v>
-      </c>
-      <c r="B197" t="s">
-        <v>414</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="E197">
-        <v>898456456</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>411</v>
-      </c>
-      <c r="B198" t="s">
-        <v>414</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="E198" s="18">
-        <v>610334511400</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>411</v>
-      </c>
-      <c r="B199" t="s">
-        <v>414</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="D199" t="s">
-        <v>129</v>
-      </c>
-      <c r="E199" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>411</v>
-      </c>
-      <c r="B200" t="s">
-        <v>414</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D200" t="s">
-        <v>134</v>
-      </c>
-      <c r="E200" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>432</v>
-      </c>
-      <c r="B201" t="s">
-        <v>433</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D201" t="s">
-        <v>134</v>
-      </c>
-      <c r="E201" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>432</v>
-      </c>
-      <c r="B202" t="s">
-        <v>433</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D202" t="s">
-        <v>134</v>
-      </c>
-      <c r="E202" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>432</v>
-      </c>
-      <c r="B203" t="s">
-        <v>433</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="D203" t="s">
-        <v>134</v>
-      </c>
-      <c r="E203" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>432</v>
-      </c>
-      <c r="B204" t="s">
-        <v>433</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="D204" t="s">
-        <v>134</v>
-      </c>
-      <c r="E204" s="18">
-        <v>25545555454</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>432</v>
-      </c>
-      <c r="B205" t="s">
-        <v>433</v>
-      </c>
-      <c r="C205" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D205" t="s">
-        <v>134</v>
-      </c>
-      <c r="E205">
-        <v>87987</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>432</v>
-      </c>
-      <c r="B206" t="s">
-        <v>440</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D206" t="s">
-        <v>134</v>
-      </c>
-      <c r="E206" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>432</v>
-      </c>
-      <c r="B207" t="s">
-        <v>440</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="D207" t="s">
-        <v>134</v>
-      </c>
-      <c r="E207" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>432</v>
-      </c>
-      <c r="B208" t="s">
-        <v>440</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="D208" t="s">
-        <v>134</v>
-      </c>
-      <c r="E208" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>432</v>
-      </c>
-      <c r="B209" t="s">
-        <v>440</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D209" t="s">
-        <v>129</v>
-      </c>
-      <c r="E209" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>432</v>
-      </c>
-      <c r="B210" t="s">
-        <v>440</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="D210" t="s">
-        <v>134</v>
-      </c>
-      <c r="E210" t="s">
-        <v>278</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E124" xr:uid="{A0CEE340-2A60-4879-972B-51611FC79445}"/>
+  <autoFilter ref="B1:F124" xr:uid="{A0CEE340-2A60-4879-972B-51611FC79445}"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" xr:uid="{EB5007F7-9B93-46DA-A879-DA22996BE6E3}"/>
-    <hyperlink ref="E61" r:id="rId2" xr:uid="{FEE513DC-81B8-4975-8B6C-C24500952FF8}"/>
-    <hyperlink ref="E62" r:id="rId3" display="adam1997@gmail.com" xr:uid="{B42C6863-39D0-44F5-BE1A-E0C4B6C9295B}"/>
-    <hyperlink ref="E63" r:id="rId4" display="adam1997@gmail.com" xr:uid="{0B65AA67-5299-4CD2-A153-B9096D5494B2}"/>
-    <hyperlink ref="E78" r:id="rId5" xr:uid="{77FADCE2-D058-40A4-A1E0-0D8C5F9F226C}"/>
-    <hyperlink ref="E79" r:id="rId6" display="stacie1995@gmail.com" xr:uid="{2AF0839B-7BA2-4C06-A495-98C764FB2B0F}"/>
-    <hyperlink ref="E91" r:id="rId7" display="edufin@gmail.com" xr:uid="{73CEB7E0-3797-4956-BA76-F7DA9CFB25B5}"/>
-    <hyperlink ref="E92" r:id="rId8" xr:uid="{EAF8BF8E-3436-44BE-8D70-DC0F9364ABC8}"/>
-    <hyperlink ref="E81" r:id="rId9" display="adam1997@gmail.com" xr:uid="{87745F77-5E83-4183-B7D0-DB157B917C57}"/>
-    <hyperlink ref="E109" r:id="rId10" xr:uid="{513E2F3D-5D26-41AC-827B-F332F9283ED9}"/>
-    <hyperlink ref="E126" r:id="rId11" xr:uid="{0E39A596-06C1-4B42-BFD4-337D2B4A3642}"/>
-    <hyperlink ref="E147" r:id="rId12" xr:uid="{E9443864-26B3-4473-9AF1-BBD4EDAF20F7}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{EB5007F7-9B93-46DA-A879-DA22996BE6E3}"/>
+    <hyperlink ref="F61" r:id="rId2" xr:uid="{FEE513DC-81B8-4975-8B6C-C24500952FF8}"/>
+    <hyperlink ref="F62" r:id="rId3" display="adam1997@gmail.com" xr:uid="{B42C6863-39D0-44F5-BE1A-E0C4B6C9295B}"/>
+    <hyperlink ref="F63" r:id="rId4" display="adam1997@gmail.com" xr:uid="{0B65AA67-5299-4CD2-A153-B9096D5494B2}"/>
+    <hyperlink ref="F78" r:id="rId5" xr:uid="{77FADCE2-D058-40A4-A1E0-0D8C5F9F226C}"/>
+    <hyperlink ref="F79" r:id="rId6" display="stacie1995@gmail.com" xr:uid="{2AF0839B-7BA2-4C06-A495-98C764FB2B0F}"/>
+    <hyperlink ref="F91" r:id="rId7" display="edufin@gmail.com" xr:uid="{73CEB7E0-3797-4956-BA76-F7DA9CFB25B5}"/>
+    <hyperlink ref="F92" r:id="rId8" xr:uid="{EAF8BF8E-3436-44BE-8D70-DC0F9364ABC8}"/>
+    <hyperlink ref="F81" r:id="rId9" display="adam1997@gmail.com" xr:uid="{87745F77-5E83-4183-B7D0-DB157B917C57}"/>
+    <hyperlink ref="F109" r:id="rId10" xr:uid="{513E2F3D-5D26-41AC-827B-F332F9283ED9}"/>
+    <hyperlink ref="F126" r:id="rId11" xr:uid="{0E39A596-06C1-4B42-BFD4-337D2B4A3642}"/>
+    <hyperlink ref="F147" r:id="rId12" xr:uid="{E9443864-26B3-4473-9AF1-BBD4EDAF20F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
